--- a/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00001.xlsx
+++ b/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="766"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -556,9 +556,6 @@
     <t>[  0.88811200,   1.36115300,   2.48761900,   3.44452200,   4.47025600,   5.49169200,   6.47272700,   7.47347800,   8.47780500,   9.50853700,  10.49439000,  11.49027000,  12.47718700,  3.48357100,  14.47807700,  15.47913000,  16.47571400,  17.48421100,  18.47000000,  19.47894700,  20.50000000,  21.51541700,  22.49653800,  23.49400000,  24.50541700,  25.49520000,  26.49148100,  7.54468100,  28.48620000,  29.50222200,  30.48333300,  31.49216200,  32.49852900,  33.49468700,  34.49774200,  35.49212100,  36.52325000,  37.30020400]</t>
   </si>
   <si>
-    <t>[399.30000000, 402.60000000, 405.90000000, 409.40000000, 412.60000000, 416.00000000, 419.90000000, 424.20000000, 428.50000000, 432.00000000, 436.10000000, 439.80000000, 444.40000000, 48.80000000, 453.20000000, 457.80000000, 461.70000000, 466.10000000, 470.80000000, 475.40000000, 480.10000000, 484.80000000, 489.40000000, 493.50000000, 498.10000000, 502.40000000, 507.10000000, 12.00000000, 517.00000000, 521.30000000, 526.10000000, 530.40000000, 534.80000000, 539.00000000, 543.50000000, 548.00000000, 552.60000000, 557.00000000, 561.60000000, 566.10000000, 570.20000000, 74.10000000, 578.10000000, 580.20000000, 584.40000000, 588.60000000, 592.80000000, 597.40000000, 601.80000000, 606.50000000, 611.00000000, 615.50000000, 620.20000000, 624.50000000, 629.00000000, .00000000, 637.70000000, 642.10000000, 646.50000000, 650.90000000, 655.50000000, 660.30000000, 664.60000000, 669.00000000, 673.70000000, 678.00000000, 682.20000000, 686.60000000, 690.70000000, 94.70000000, 698.60000000, 702.80000000, 706.80000000, 711.20000000, 714.80000000, 719.00000000, 723.00000000, 727.00000000, 731.30000000]</t>
-  </si>
-  <si>
     <t>[ -0.71772800,  -0.57123100,  -0.47287800,  -0.40756500,  -0.36677000,  -0.34228600,  -0.32267500,  -0.30696600,  -0.29109700,  -0.27299200,  -0.25239900,  -0.23191700,  -0.20952800,  -0.18571700,  -0.16065100,  -0.13403800,  -0.10642800,  -0.07822800,  -0.05020200,  -0.02132600,   0.00882800,   0.03836400,   0.06773800,   0.09684500,   0.12494800,   0.15215700,   0.17817500,   0.20427400,   0.23205400,   0.26001000,   0.28828500,   0.31595100,   0.34298700,   0.36947600,   0.39483600,   0.41996400,   0.44546600,   0.47030100,   0.49412000,   0.51601100,   0.53510700,   0.55126000,   0.56365000,   0.56853700,   0.57439300,   0.57496400,   0.56947400,   0.56155800,   0.55929100,   0.56638000,   0.58053200,   0.59777600,   0.61530900,   0.63243700,   0.64940000,   0.66529200,   0.68012700,   0.69291000,   0.70199400,   0.70704500,   0.70972400,   0.71406900,   0.72227700,   0.73241900,   0.74122800,   0.74651300,   0.74652500,   0.73844200,   0.71995800,   0.68913900,   0.64380500,   0.58035100,   0.49454800,   0.38077400,   0.23437700,   0.05174400,  -0.16867900,  -0.41820900,  -0.67126100]</t>
   </si>
   <si>
@@ -583,16 +580,10 @@
     <t>[2.800759E-03,1.182838E-04,2.365347E-06,2.301820E+02,-3.344654E-01,-5.691545E+01,4.558267E+00]</t>
   </si>
   <si>
-    <t>[188.92, 189.71, 190.51, 191.31, 192.1, 192.9, 193.7, 194.49, 195.29, 196.09, 196.89, 197.69, 198.49, 199.29, 200.09, 200.88, 201.68, 202.48, 203.29, 204.09, 204.89, 205.69, 206.49, 207.29, 208.09, 208.89, 209.7, 210.5, 211.3, 212.1, 212.91, 213.71, 214.52, 215.32, 216.12, 216.93, 217.73, 218.54, 219.34, 220.15, 220.95, 221.76, 222.56, 223.37, 224.18, 224.98, 225.79, 226.59, 227.4, 228.21, 229.02, 229.82, 230.63, 231.44, 232.25, 233.05, 233.86, 234.67, 235.48, 236.29, 237.1, 237.91, 238.72, 239.53, 240.34, 241.15, 241.96, 242.77, 243.58, 244.39, 245.2, 246.01, 246.82, 247.63, 248.44, 249.25, 250.06, 250.87, 251.69, 252.5, 253.31, 254.12, 254.93, 255.75, 256.56, 257.37, 258.18, 259, 259.81, 260.62, 261.44, 262.25, 263.06, 263.88, 264.69, 265.5, 266.32, 267.13, 267.95, 268.76, 269.57, 270.39, 271.2, 272.02, 272.83, 273.65, 274.46, 275.27, 276.09, 276.9, 277.72, 278.53, 279.35, 280.16, 280.98, 281.79, 282.61, 283.43, 284.24, 285.06, 285.87, 286.69, 287.5, 288.32, 289.13, 289.95, 290.77, 291.58, 292.4, 293.21, 294.03, 294.85, 295.66, 296.48, 297.29, 298.11, 298.93, 299.74, 300.56, 301.38, 302.19, 303.01, 303.82, 304.64, 305.46, 306.27, 307.09, 307.91, 308.72, 309.54, 310.35, 311.17, 311.99, 312.8, 313.62, 314.44, 315.25, 316.07, 316.88, 317.7, 318.52, 319.33, 320.15, 320.96, 321.78, 322.6, 323.41, 324.23, 325.04, 325.86, 326.68, 327.49, 328.31, 329.12, 329.94, 330.75, 331.57, 332.38, 333.2, 334.02, 334.83, 335.65, 336.46, 337.28, 338.09, 338.91, 339.72, 340.54, 341.35, 342.17, 342.98, 343.79, 344.61, 345.42, 346.24, 347.05, 347.87, 348.68, 349.49, 350.31, 351.12, 351.93, 352.75, 353.56, 354.37, 355.19, 356, 356.81, 357.63, 358.44, 359.25, 360.06, 360.88, 361.69, 362.5, 363.31, 364.12, 364.94, 365.75, 366.56, 367.37, 368.18, 368.99, 369.8, 370.61, 371.42, 372.24, 373.05, 373.86, 374.67, 375.48, 376.29, 377.09, 377.9, 378.71, 379.52, 380.33, 381.14, 381.95, 382.76, 383.56, 384.37, 385.18, 385.99, 386.8, 387.6, 388.41, 389.22, 390.02, 390.83, 391.64, 392.44, 393.25, 394.05, 394.86, 395.67]</t>
-  </si>
-  <si>
     <t>[0.00611237, 0.01311112, -0.00510945, 0.01355987, 0.00865523, 0.00199873, 0.01266283, -0.00281675, -0.00411997, -0.00123237, 0.00022019, 0.01723512, 0.0333242, 0.00847777, 0.0049473, 0.00531812, 0.00771017, 0.00454779, 0.0039675, 0.00265685, -0.00138916, -0.00043535, 0.00163072, 0.00340347, 0.00502501, 0.00637448, 0.0061163, 0.00697342, 0.00670474, 0.00632922, 0.0061936, 0.00589464, 0.00555913, 0.00522822, 0.00490874, 0.00457499, 0.00423017, 0.00390764, 0.00358324, 0.00327548, 0.00298322, 0.00270032, 0.00243087, 0.00217439, 0.00194024, 0.00170873, 0.00149764, 0.0013024, 0.00112161, 0.00096534, 0.00082668, 0.0007017, 0.00060415, 0.00050715, 0.00042243, 0.00033763, 0.000291, 0.00023119, 0.00019266, 0.00014548, 0.00012105, 0.00008636, 0.00006286, 0.0000473, 0.00003193, 0.00001738, 0.00001106, 0.00000432, 0.0000033, -0.00000256, -0.00000908, -0.00000499, -0.00001068, -0.00001291, -0.00001114, -0.00001105, -0.00002356, -0.00001779, -0.00001505, -0.00000564, -0.00000393, -0.00000319, 0.00000264, 0.00000054, 0.00001358, 0.00000615, 0.00001291, 0.00001246, 0.00001528, 0.00000872, 0.00001896, 0.00002592, 0.00002058, 0.00002059, 0.00003341, 0.00003884, 0.000039, 0.00004407, 0.00004687, 0.00005119, 0.00004129, 0.00005894, 0.00005122, 0.00005521, 0.00005741, 0.000056, 0.00006454, 0.00006301, 0.00007739, 0.00007733, 0.00007018, 0.00007535, 0.00007845, 0.00009246, 0.00008323, 0.00008213, 0.0000813, 0.0001001, 0.00010135, 0.00009176, 0.00009992, 0.0001186, 0.00012141, 0.00012491, 0.00013637, 0.00012447, 0.00013229, 0.00013739, 0.00012753, 0.00013154, 0.00013864, 0.00014158, 0.00013663, 0.00015316, 0.00014896, 0.00015449, 0.00015483, 0.00016284, 0.00017335, 0.00016489, 0.00017251, 0.0001698, 0.00016235, 0.00017426, 0.00017219, 0.00017494, 0.00017733, 0.00018553, 0.00018748, 0.00018958, 0.00019521, 0.00019364, 0.00019846, 0.00019996, 0.00020097, 0.00021586, 0.00021173, 0.00021742, 0.0002131, 0.00021834, 0.00023251, 0.00023138, 0.0002257, 0.00022684, 0.00021954, 0.00023123, 0.00023373, 0.00023285, 0.000243, 0.00023833, 0.00023115, 0.00024656, 0.00023658, 0.00025903, 0.00027073, 0.0002507, 0.00024862, 0.00026712, 0.00027203, 0.00027566, 0.00029642, 0.00027273, 0.00027983, 0.00028442, 0.0002774, 0.00028586, 0.00030115, 0.00029921, 0.00031627, 0.00031432, 0.000308, 0.00030563, 0.00033195, 0.00032079, 0.00028596, 0.00031828, 0.0003348, 0.00032149, 0.00033197, 0.00032754, 0.00032596, 0.00035159, 0.0003378, 0.00033468, 0.00036047, 0.00033892, 0.00035873, 0.00033861, 0.00036013, 0.00033985, 0.0003741, 0.00034894, 0.00035837, 0.00038097, 0.00037122, 0.0003664, 0.00035962, 0.00039695, 0.0003608, 0.00037273, 0.00037789, 0.00035563, 0.00037551, 0.00035379, 0.00038245, 0.00043336, 0.00040424, 0.00035182, 0.00040757, 0.00045916, 0.00044525, 0.00043785, 0.00044191, 0.00042846, 0.00045217, 0.00039189, 0.00046057, 0.00045972, 0.00034784, 0.00041188, 0.00047024, 0.0005458, 0.00050898, 0.00051966, 0.00046773, 0.00052531, 0.00046831, 0.00052762, 0.00052189, 0.00045514, 0.00046836, 0.00040989, 0.00047982, 0.00052058, 0.00049812, 0.00050092]</t>
   </si>
   <si>
     <t>[0.0003342, -0.00656703, 0.00382512, 0.00014982, 0.00444116, 0.0070138, 0.00399542, 0.01289635, 0.01668475, 0.00390825, -0.00947334, 0.00291557, 0.01667628, 0.02041351, 0.03367708, 0.04269197, 0.05543324, 0.0559761, 0.05999644, 0.06595006, 0.0715046, 0.06933224, 0.06453055, 0.06228203, 0.05704833, 0.04946452, 0.04216309, 0.03543369, 0.02950223, 0.0242279, 0.01970909, 0.01595571, 0.01283972, 0.01022592, 0.00811447, 0.00641141, 0.00505736, 0.00396295, 0.00310757, 0.00243412, 0.00189264, 0.00147861, 0.00114527, 0.0008956, 0.00069602, 0.00053622, 0.0004267, 0.00033643, 0.00027278, 0.00021786, 0.00017818, 0.00015153, 0.00011623, 0.0000884, 0.00007071, 0.00006747, 0.00005992, 0.00005496, 0.00003518, 0.00004295, 0.0000343, 0.00002056, 0.00002055, 0.0000159, 0.00001255, 0.00001258, -0.00000332, -0.00000018, 0.00000378, -0.00000436, -0.00000448, -0.00001163, 0.00000014, -0.00000417, -0.00000602, 0.0000003, 0.00000825, -0.00000101, -0.00000798, -0.00000481, 0.00000058, -0.00000839, -0.00000086, 0.00000021, -0.0000061, 0.00000431, 0.00000415, 0.00000987, 0.0000066, 0.00000576, 0.00000387, -0.00000123, 0.0000162, -0.0000014, -0.00000085, 0.00001155, 0.00003301, 0.00002772, 0.00001837, 0.00002719, 0.00003831, 0.00001192, 0.00002096, 0.00003412, 0.00003258, 0.0000365, 0.00002679, 0.00003549, 0.00003519, 0.00002506, 0.00004111, 0.00005664, 0.00004751, 0.00002981, 0.00004594, 0.00005504, 0.00006964, 0.00003823, 0.00004919, 0.00007824, 0.00006043, 0.00005332, 0.00005471, 0.00007207, 0.00006374, 0.00005945, 0.00005927, 0.00007325, 0.00007633, 0.0000785, 0.00007503, 0.00009863, 0.00010749, 0.00010154, 0.00010407, 0.00011116, 0.00010175, 0.00010476, 0.00009715, 0.00010458, 0.00011727, 0.00011654, 0.00012498, 0.0001288, 0.00013761, 0.00013051, 0.00014474, 0.00013635, 0.00015641, 0.00014654, 0.00015105, 0.00016585, 0.00016183, 0.00016171, 0.00016573, 0.00017033, 0.00016664, 0.00016259, 0.00017739, 0.00017841, 0.00018419, 0.00018404, 0.00019504, 0.00020558, 0.0002184, 0.0001974, 0.00020138, 0.00020645, 0.00020312, 0.00022684, 0.00022468, 0.00021736, 0.00025112, 0.00025534, 0.00024144, 0.00025201, 0.00026873, 0.00024092, 0.00024068, 0.0002508, 0.00024629, 0.00027949, 0.00027361, 0.00025354, 0.00029755, 0.00028031, 0.00026569, 0.00027692, 0.00030165, 0.00027806, 0.00028953, 0.00027885, 0.00033083, 0.00031506, 0.0003328, 0.00029527, 0.00031844, 0.00035634, 0.00030182, 0.00031072, 0.00033817, 0.00034007, 0.00033458, 0.00035296, 0.00032701, 0.00034554, 0.0003249, 0.0003696, 0.00036016, 0.00039198, 0.00035001, 0.00039154, 0.00039899, 0.00040244, 0.00035242, 0.00039111, 0.00039414, 0.00037445, 0.00040438, 0.0004074, 0.00044299, 0.00044864, 0.00043149, 0.00042473, 0.00041509, 0.00040458, 0.00040643, 0.00042922, 0.00042069, 0.00043123, 0.00043356, 0.00046184, 0.0004499, 0.00047978, 0.00041253, 0.00048635, 0.00051178, 0.00047277, 0.00051546, 0.00047407, 0.00047651, 0.00039617, 0.00045959, 0.00042067, 0.00049094, 0.00050937, 0.00051638, 0.00046787, 0.00050254, 0.00049757, 0.0004924, 0.0005866, 0.00055161, 0.00056714, 0.00055322, 0.00055702]</t>
-  </si>
-  <si>
-    <t>[19, 15, 22, 26, 36, 28, 32, 41, 51, 29, 12, 32, 80, 140, 383, 916, 1858, 3226, 4862, 6568, 8147, 9472, 10551, 11434, 12185, 12872, 13584, 14373, 15264, 16311, 17556, 18994, 20664, 22508, 24564, 26711, 28904, 31011, 32894, 34424, 35447, 35912, 35748, 35106, 34009, 32654, 31256, 29890, 28700, 27715, 26873, 26493, 26259, 26244, 26461, 26896, 27528, 28320, 29269, 30361, 31593, 32893, 34294, 35714, 37064, 38294, 39316, 40056, 40429, 40352, 39858, 38900, 37614, 35994, 34184, 32306, 30427, 28579, 26878, 25336, 23942, 22713, 21653, 20738, 19974, 19327, 18816, 18444, 18152, 17977, 17919, 17953, 18092, 18299, 18615, 19006, 19473, 19954, 20455, 20990, 21476, 21867, 22204, 22406, 22469, 22383, 22138, 21761, 21263, 20627, 19952, 19240, 18463, 17735, 17016, 16345, 15756, 15187, 14712, 14292, 13940, 13649, 13428, 13266, 13154, 13100, 13094, 13151, 13247, 13385, 13560, 13789, 14034, 14313, 14608, 14936, 15269, 15640, 16001, 16391, 16776, 17143, 17516, 17856, 18161, 18445, 18676, 18851, 18997, 19046, 19056, 19001, 18869, 18668, 18429, 18126, 17765, 17372, 16953, 16505, 16061, 15581, 15125, 14675, 14209, 13739, 13282, 12828, 12384, 11954, 11518, 11102, 10734, 10388, 10073, 9778, 9538, 9309, 9108, 8947, 8802, 8670, 8546, 8429, 8329, 8224, 8112, 8013, 7929, 7810, 7709, 7612, 7557, 7477, 7432, 7356, 7312, 7287, 7222, 7181, 7164, 7153, 7132, 7106, 7085, 7069, 7039, 7023, 6996, 6958, 6909, 6857, 6805, 6726, 6634, 6544, 6443, 6343, 6244, 6144, 6040, 5909, 5759, 5582, 5426, 5263, 5126, 4995, 4864, 4760, 4652, 4546, 4444, 4367, 4280, 4220, 4134, 4017, 3905, 3808, 3724, 3636, 3573, 3503, 3459, 3421, 3371, 3308, 3269, 3235, 3200, 3154, 3026, 2820, 2530, 2530]</t>
   </si>
   <si>
     <t>[1.368,1.410,1.365,1.354,1.372,1.322,1.347]</t>
@@ -622,7 +613,35 @@
     <t>CP03ISSM-00001-MOPAK</t>
   </si>
   <si>
-    <t>This is a bogus serial number; no Calibration Coefficient</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is a bogus serial number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; no Calibration Coefficient</t>
+    </r>
+  </si>
+  <si>
+    <t>[19.0, 15.0, 22.0, 26.0, 36.0, 28.0, 32.0, 41.0, 51.0, 29.0, 12.0, 32.0, 80.0, 140.0, 383.0, 916.0, 1858.0, 3226.0, 4862.0, 6568.0, 8147.0, 9472.0, 10551.0, 11434.0, 12185.0, 12872.0, 13584.0, 14373.0, 15264.0, 16311.0, 17556.0, 18994.0, 20664.0, 22508.0, 24564.0, 26711.0, 28904.0, 31011.0, 32894.0, 34424.0, 35447.0, 35912.0, 35748.0, 35106.0, 34009.0, 32654.0, 31256.0, 29890.0, 28700.0, 27715.0, 26873.0, 26493.0, 26259.0, 26244.0, 26461.0, 26896.0, 27528.0, 28320.0, 29269.0, 30361.0, 31593.0, 32893.0, 34294.0, 35714.0, 37064.0, 38294.0, 39316.0, 40056.0, 40429.0, 40352.0, 39858.0, 38900.0, 37614.0, 35994.0, 34184.0, 32306.0, 30427.0, 28579.0, 26878.0, 25336.0, 23942.0, 22713.0, 21653.0, 20738.0, 19974.0, 19327.0, 18816.0, 18444.0, 18152.0, 17977.0, 17919.0, 17953.0, 18092.0, 18299.0, 18615.0, 19006.0, 19473.0, 19954.0, 20455.0, 20990.0, 21476.0, 21867.0, 22204.0, 22406.0, 22469.0, 22383.0, 22138.0, 21761.0, 21263.0, 20627.0, 19952.0, 19240.0, 18463.0, 17735.0, 17016.0, 16345.0, 15756.0, 15187.0, 14712.0, 14292.0, 13940.0, 13649.0, 13428.0, 13266.0, 13154.0, 13100.0, 13094.0, 13151.0, 13247.0, 13385.0, 13560.0, 13789.0, 14034.0, 14313.0, 14608.0, 14936.0, 15269.0, 15640.0, 16001.0, 16391.0, 16776.0, 17143.0, 17516.0, 17856.0, 18161.0, 18445.0, 18676.0, 18851.0, 18997.0, 19046.0, 19056.0, 19001.0, 18869.0, 18668.0, 18429.0, 18126.0, 17765.0, 17372.0, 16953.0, 16505.0, 16061.0, 15581.0, 15125.0, 14675.0, 14209.0, 13739.0, 13282.0, 12828.0, 12384.0, 11954.0, 11518.0, 11102.0, 10734.0, 10388.0, 10073.0, 9778.0, 9538.0, 9309.0, 9108.0, 8947.0, 8802.0, 8670.0, 8546.0, 8429.0, 8329.0, 8224.0, 8112.0, 8013.0, 7929.0, 7810.0, 7709.0, 7612.0, 7557.0, 7477.0, 7432.0, 7356.0, 7312.0, 7287.0, 7222.0, 7181.0, 7164.0, 7153.0, 7132.0, 7106.0, 7085.0, 7069.0, 7039.0, 7023.0, 6996.0, 6958.0, 6909.0, 6857.0, 6805.0, 6726.0, 6634.0, 6544.0, 6443.0, 6343.0, 6244.0, 6144.0, 6040.0, 5909.0, 5759.0, 5582.0, 5426.0, 5263.0, 5126.0, 4995.0, 4864.0, 4760.0, 4652.0, 4546.0, 4444.0, 4367.0, 4280.0, 4220.0, 4134.0, 4017.0, 3905.0, 3808.0, 3724.0, 3636.0, 3573.0, 3503.0, 3459.0, 3421.0, 3371.0, 3308.0, 3269.0, 3235.0, 3200.0, 3154.0, 3026.0, 2820.0, 2530.0, 2530.0]</t>
+  </si>
+  <si>
+    <t>[188.92, 189.71, 190.51, 191.31, 192.1, 192.9, 193.7, 194.49, 195.29, 196.09, 196.89, 197.69, 198.49, 199.29, 200.09, 200.88, 201.68, 202.48, 203.29, 204.09, 204.89, 205.69, 206.49, 207.29, 208.09, 208.89, 209.7, 210.5, 211.3, 212.1, 212.91, 213.71, 214.52, 215.32, 216.12, 216.93, 217.73, 218.54, 219.34, 220.15, 220.95, 221.76, 222.56, 223.37, 224.18, 224.98, 225.79, 226.59, 227.4, 228.21, 229.02, 229.82, 230.63, 231.44, 232.25, 233.05, 233.86, 234.67, 235.48, 236.29, 237.1, 237.91, 238.72, 239.53, 240.34, 241.15, 241.96, 242.77, 243.58, 244.39, 245.2, 246.01, 246.82, 247.63, 248.44, 249.25, 250.06, 250.87, 251.69, 252.5, 253.31, 254.12, 254.93, 255.75, 256.56, 257.37, 258.18, 259.0, 259.81, 260.62, 261.44, 262.25, 263.06, 263.88, 264.69, 265.5, 266.32, 267.13, 267.95, 268.76, 269.57, 270.39, 271.2, 272.02, 272.83, 273.65, 274.46, 275.27, 276.09, 276.9, 277.72, 278.53, 279.35, 280.16, 280.98, 281.79, 282.61, 283.43, 284.24, 285.06, 285.87, 286.69, 287.5, 288.32, 289.13, 289.95, 290.77, 291.58, 292.4, 293.21, 294.03, 294.85, 295.66, 296.48, 297.29, 298.11, 298.93, 299.74, 300.56, 301.38, 302.19, 303.01, 303.82, 304.64, 305.46, 306.27, 307.09, 307.91, 308.72, 309.54, 310.35, 311.17, 311.99, 312.8, 313.62, 314.44, 315.25, 316.07, 316.88, 317.7, 318.52, 319.33, 320.15, 320.96, 321.78, 322.6, 323.41, 324.23, 325.04, 325.86, 326.68, 327.49, 328.31, 329.12, 329.94, 330.75, 331.57, 332.38, 333.2, 334.02, 334.83, 335.65, 336.46, 337.28, 338.09, 338.91, 339.72, 340.54, 341.35, 342.17, 342.98, 343.79, 344.61, 345.42, 346.24, 347.05, 347.87, 348.68, 349.49, 350.31, 351.12, 351.93, 352.75, 353.56, 354.37, 355.19, 356.0, 356.81, 357.63, 358.44, 359.25, 360.06, 360.88, 361.69, 362.5, 363.31, 364.12, 364.94, 365.75, 366.56, 367.37, 368.18, 368.99, 369.8, 370.61, 371.42, 372.24, 373.05, 373.86, 374.67, 375.48, 376.29, 377.09, 377.9, 378.71, 379.52, 380.33, 381.14, 381.95, 382.76, 383.56, 384.37, 385.18, 385.99, 386.8, 387.6, 388.41, 389.22, 390.02, 390.83, 391.64, 392.44, 393.25, 394.05, 394.86, 395.67]</t>
+  </si>
+  <si>
+    <t>[399.30000000, 402.60000000, 405.90000000, 409.40000000, 412.60000000, 416.00000000, 419.90000000, 424.20000000, 428.50000000, 432.00000000, 436.10000000, 439.80000000, 444.40000000, 48.80000000, 453.20000000, 457.80000000, 461.70000000, 466.10000000, 470.80000000, 475.40000000, 480.10000000, 484.80000000, 489.40000000, 493.50000000, 498.10000000, 502.40000000, 507.10000000, 12.00000000, 517.00000000, 521.30000000, 526.10000000, 530.40000000, 534.80000000, 539.00000000, 543.50000000, 548.00000000, 552.60000000, 557.00000000, 561.60000000, 566.10000000, 570.20000000, 74.10000000, 578.10000000, 580.20000000, 584.40000000, 588.60000000, 592.80000000, 597.40000000, 601.80000000, 606.50000000, 611.00000000, 615.50000000, 620.20000000, 624.50000000, 629.00000000, 0.00000000, 637.70000000, 642.10000000, 646.50000000, 650.90000000, 655.50000000, 660.30000000, 664.60000000, 669.00000000, 673.70000000, 678.00000000, 682.20000000, 686.60000000, 690.70000000, 94.70000000, 698.60000000, 702.80000000, 706.80000000, 711.20000000, 714.80000000, 719.00000000, 723.00000000, 727.00000000, 731.30000000]</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1038,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1097,6 +1116,11 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="Comma 2" xfId="74"/>
@@ -1547,25 +1571,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="18" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="18" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="18" customWidth="1"/>
     <col min="12" max="12" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="18"/>
+    <col min="13" max="13" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -1603,7 +1627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>113</v>
       </c>
@@ -1627,7 +1651,7 @@
         <v>145</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>146</v>
@@ -1670,24 +1694,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1710,10 +1734,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>141</v>
       </c>
@@ -1724,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>114</v>
       </c>
@@ -1750,7 +1774,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>114</v>
       </c>
@@ -1770,7 +1794,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>114</v>
       </c>
@@ -1790,7 +1814,7 @@
         <v>1.0668</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>114</v>
       </c>
@@ -1810,7 +1834,7 @@
         <v>4.2926000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -1830,7 +1854,7 @@
         <v>4.2926000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>114</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>4.7497999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>114</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>114</v>
       </c>
@@ -1896,7 +1920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>114</v>
       </c>
@@ -1919,7 +1943,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>115</v>
       </c>
@@ -1933,10 +1957,10 @@
         <v>148</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>116</v>
       </c>
@@ -1956,7 +1980,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>116</v>
       </c>
@@ -1976,7 +2000,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>142</v>
       </c>
@@ -1996,7 +2020,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>142</v>
       </c>
@@ -2016,7 +2040,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>117</v>
       </c>
@@ -2036,7 +2060,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>117</v>
       </c>
@@ -2056,7 +2080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>117</v>
       </c>
@@ -2076,7 +2100,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>117</v>
       </c>
@@ -2096,7 +2120,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
@@ -2116,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>117</v>
       </c>
@@ -2136,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>117</v>
       </c>
@@ -2159,7 +2183,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>118</v>
       </c>
@@ -2179,7 +2203,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>118</v>
       </c>
@@ -2199,7 +2223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>118</v>
       </c>
@@ -2219,7 +2243,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>118</v>
       </c>
@@ -2239,7 +2263,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>118</v>
       </c>
@@ -2259,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>118</v>
       </c>
@@ -2279,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>118</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>119</v>
       </c>
@@ -2322,7 +2346,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>119</v>
       </c>
@@ -2342,7 +2366,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>119</v>
       </c>
@@ -2362,7 +2386,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>119</v>
       </c>
@@ -2382,7 +2406,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>119</v>
       </c>
@@ -2395,14 +2419,14 @@
       <c r="D43" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>119</v>
       </c>
@@ -2419,10 +2443,10 @@
         <v>104</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>119</v>
       </c>
@@ -2435,14 +2459,14 @@
       <c r="D45" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>119</v>
       </c>
@@ -2455,14 +2479,14 @@
       <c r="D46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="27" t="s">
         <v>106</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>120</v>
       </c>
@@ -2479,10 +2503,10 @@
         <v>101</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>120</v>
       </c>
@@ -2499,10 +2523,10 @@
         <v>102</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>120</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>120</v>
       </c>
@@ -2539,10 +2563,10 @@
         <v>43</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>120</v>
       </c>
@@ -2559,10 +2583,10 @@
         <v>103</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>120</v>
       </c>
@@ -2579,10 +2603,10 @@
         <v>104</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>120</v>
       </c>
@@ -2602,7 +2626,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>120</v>
       </c>
@@ -2622,7 +2646,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>121</v>
       </c>
@@ -2642,7 +2666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>121</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>1.6959999999999999E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>121</v>
       </c>
@@ -2682,7 +2706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>121</v>
       </c>
@@ -2702,7 +2726,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>121</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>121</v>
       </c>
@@ -2742,7 +2766,7 @@
         <v>9.0399999999999994E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>121</v>
       </c>
@@ -2765,7 +2789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>121</v>
       </c>
@@ -2788,7 +2812,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>121</v>
       </c>
@@ -2811,7 +2835,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>121</v>
       </c>
@@ -2834,7 +2858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>122</v>
       </c>
@@ -2854,7 +2878,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>122</v>
       </c>
@@ -2874,7 +2898,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>122</v>
       </c>
@@ -2894,7 +2918,7 @@
         <v>1.275736E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>122</v>
       </c>
@@ -2914,7 +2938,7 @@
         <v>2.687395E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>122</v>
       </c>
@@ -2934,7 +2958,7 @@
         <v>-4.9407139999999997E-7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>122</v>
       </c>
@@ -2954,7 +2978,7 @@
         <v>1.5714250000000001E-7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>122</v>
       </c>
@@ -2974,7 +2998,7 @@
         <v>-59.860720000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>122</v>
       </c>
@@ -2994,7 +3018,7 @@
         <v>54.689369999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>122</v>
       </c>
@@ -3014,7 +3038,7 @@
         <v>-0.59772709999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>122</v>
       </c>
@@ -3034,7 +3058,7 @@
         <v>524321.69999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>122</v>
       </c>
@@ -3054,7 +3078,7 @@
         <v>4.3960220000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>122</v>
       </c>
@@ -3074,7 +3098,7 @@
         <v>-0.18980369999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>122</v>
       </c>
@@ -3094,7 +3118,7 @@
         <v>25.0275</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>122</v>
       </c>
@@ -3114,7 +3138,7 @@
         <v>-8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>122</v>
       </c>
@@ -3134,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>122</v>
       </c>
@@ -3154,7 +3178,7 @@
         <v>4.7931029999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>122</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>4.880347E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>122</v>
       </c>
@@ -3194,7 +3218,7 @@
         <v>-5.7918670000000003E-12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>122</v>
       </c>
@@ -3214,7 +3238,7 @@
         <v>-0.9775528</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>122</v>
       </c>
@@ -3234,7 +3258,7 @@
         <v>0.13665949999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -3254,7 +3278,7 @@
         <v>-2.227513E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>122</v>
       </c>
@@ -3274,7 +3298,7 @@
         <v>3.482608E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>122</v>
       </c>
@@ -3294,7 +3318,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>122</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>123</v>
       </c>
@@ -3334,7 +3358,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>123</v>
       </c>
@@ -3354,7 +3378,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>123</v>
       </c>
@@ -3374,7 +3398,7 @@
         <v>1.2462179999999999E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>123</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>2.7678380000000001E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>123</v>
       </c>
@@ -3414,7 +3438,7 @@
         <v>-1.2985689999999999E-6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>123</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>1.8894860000000001E-7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>123</v>
       </c>
@@ -3454,7 +3478,7 @@
         <v>-60.5807</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>123</v>
       </c>
@@ -3474,7 +3498,7 @@
         <v>52.932580000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>123</v>
       </c>
@@ -3494,7 +3518,7 @@
         <v>-0.33026139999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>123</v>
       </c>
@@ -3514,7 +3538,7 @@
         <v>524771.30000000005</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>123</v>
       </c>
@@ -3534,7 +3558,7 @@
         <v>7.7022430000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>123</v>
       </c>
@@ -3554,7 +3578,7 @@
         <v>-0.1943513</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>123</v>
       </c>
@@ -3574,7 +3598,7 @@
         <v>25.106000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>123</v>
       </c>
@@ -3594,7 +3618,7 @@
         <v>-9.9999989999999999E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>123</v>
       </c>
@@ -3614,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>123</v>
       </c>
@@ -3634,7 +3658,7 @@
         <v>0.12014469999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>123</v>
       </c>
@@ -3654,7 +3678,7 @@
         <v>1.5407649999999999E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>123</v>
       </c>
@@ -3674,7 +3698,7 @@
         <v>5.3610539999999999E-12</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>123</v>
       </c>
@@ -3694,7 +3718,7 @@
         <v>-0.95357239999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>123</v>
       </c>
@@ -3714,7 +3738,7 @@
         <v>0.13362479999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>123</v>
       </c>
@@ -3734,7 +3758,7 @@
         <v>-3.7835450000000002E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>123</v>
       </c>
@@ -3754,7 +3778,7 @@
         <v>4.5128569999999998E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>123</v>
       </c>
@@ -3774,7 +3798,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>123</v>
       </c>
@@ -3794,7 +3818,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>124</v>
       </c>
@@ -3814,7 +3838,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>124</v>
       </c>
@@ -3834,7 +3858,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>124</v>
       </c>
@@ -3851,10 +3875,10 @@
         <v>11</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>125</v>
       </c>
@@ -3874,7 +3898,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>125</v>
       </c>
@@ -3894,7 +3918,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>125</v>
       </c>
@@ -3911,10 +3935,10 @@
         <v>11</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>126</v>
       </c>
@@ -3937,7 +3961,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>126</v>
       </c>
@@ -3960,7 +3984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -3980,7 +4004,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>126</v>
       </c>
@@ -3993,14 +4017,14 @@
       <c r="D129" s="8">
         <v>268</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F129" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>126</v>
       </c>
@@ -4017,10 +4041,10 @@
         <v>48</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>126</v>
       </c>
@@ -4037,10 +4061,10 @@
         <v>49</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>126</v>
       </c>
@@ -4053,14 +4077,14 @@
       <c r="D132" s="8">
         <v>268</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F132" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>127</v>
       </c>
@@ -4077,10 +4101,10 @@
         <v>51</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>127</v>
       </c>
@@ -4097,10 +4121,10 @@
         <v>52</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>127</v>
       </c>
@@ -4117,10 +4141,10 @@
         <v>53</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>128</v>
       </c>
@@ -4140,7 +4164,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>128</v>
       </c>
@@ -4160,7 +4184,7 @@
         <v>40.362341666666666</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>128</v>
       </c>
@@ -4180,7 +4204,7 @@
         <v>-70.878614999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>128</v>
       </c>
@@ -4200,7 +4224,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>128</v>
       </c>
@@ -4220,7 +4244,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>128</v>
       </c>
@@ -4240,7 +4264,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>128</v>
       </c>
@@ -4260,7 +4284,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>129</v>
       </c>
@@ -4280,7 +4304,7 @@
         <v>2094.3690000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>129</v>
       </c>
@@ -4300,7 +4324,7 @@
         <v>15.749129999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>129</v>
       </c>
@@ -4320,7 +4344,7 @@
         <v>-3649.47</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>129</v>
       </c>
@@ -4340,7 +4364,7 @@
         <v>2.1985999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>129</v>
       </c>
@@ -4360,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>129</v>
       </c>
@@ -4383,7 +4407,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>129</v>
       </c>
@@ -4403,7 +4427,7 @@
         <v>-0.2014</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>129</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>129</v>
       </c>
@@ -4446,7 +4470,7 @@
         <v>27.677230000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>129</v>
       </c>
@@ -4466,7 +4490,7 @@
         <v>0.390712</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>129</v>
       </c>
@@ -4486,7 +4510,7 @@
         <v>18.058910000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>129</v>
       </c>
@@ -4506,7 +4530,7 @@
         <v>26.153639999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>129</v>
       </c>
@@ -4526,7 +4550,7 @@
         <v>5.8282090000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>129</v>
       </c>
@@ -4546,7 +4570,7 @@
         <v>-3920.2510000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>129</v>
       </c>
@@ -4566,7 +4590,7 @@
         <v>-10474.77</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>129</v>
       </c>
@@ -4586,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>129</v>
       </c>
@@ -4606,7 +4630,7 @@
         <v>2796.2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>129</v>
       </c>
@@ -4626,7 +4650,7 @@
         <v>41943</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>130</v>
       </c>
@@ -4646,7 +4670,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>130</v>
       </c>
@@ -4666,7 +4690,7 @@
         <v>0.89419999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>130</v>
       </c>
@@ -4686,7 +4710,7 @@
         <v>-1.8018000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>130</v>
       </c>
@@ -4706,7 +4730,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>130</v>
       </c>
@@ -4726,7 +4750,7 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>130</v>
       </c>
@@ -4746,7 +4770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>130</v>
       </c>
@@ -4766,7 +4790,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>130</v>
       </c>
@@ -4786,7 +4810,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>131</v>
       </c>
@@ -4797,13 +4821,13 @@
         <v>1</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>132</v>
       </c>
@@ -4817,10 +4841,10 @@
         <v>160</v>
       </c>
       <c r="G176" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>133</v>
       </c>
@@ -4834,10 +4858,10 @@
         <v>161</v>
       </c>
       <c r="G177" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>134</v>
       </c>
@@ -4851,14 +4875,14 @@
         <v>162</v>
       </c>
       <c r="G178" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D179" s="24"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>135</v>
       </c>
@@ -4872,10 +4896,10 @@
         <v>163</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>136</v>
       </c>
@@ -4889,10 +4913,10 @@
         <v>164</v>
       </c>
       <c r="G181" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>137</v>
       </c>
@@ -4906,10 +4930,10 @@
         <v>165</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>138</v>
       </c>
@@ -4923,10 +4947,10 @@
         <v>166</v>
       </c>
       <c r="G183" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>139</v>
       </c>
@@ -4940,10 +4964,10 @@
         <v>167</v>
       </c>
       <c r="G184" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>140</v>
       </c>
@@ -4957,7 +4981,7 @@
         <v>168</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4975,9 +4999,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.12295300000000001</v>
       </c>
@@ -5093,7 +5117,7 @@
         <v>5.2187999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.109476</v>
       </c>
@@ -5209,7 +5233,7 @@
         <v>4.4817999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-9.6312999999999996E-2</v>
       </c>
@@ -5325,7 +5349,7 @@
         <v>3.6823000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-8.2314999999999999E-2</v>
       </c>
@@ -5441,7 +5465,7 @@
         <v>3.0873000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-6.9955000000000003E-2</v>
       </c>
@@ -5557,7 +5581,7 @@
         <v>2.5044E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-5.9865000000000002E-2</v>
       </c>
@@ -5673,7 +5697,7 @@
         <v>2.0485E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.1500999999999998E-2</v>
       </c>
@@ -5789,7 +5813,7 @@
         <v>1.721E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.4443999999999997E-2</v>
       </c>
@@ -5905,7 +5929,7 @@
         <v>1.4402E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-3.8405000000000002E-2</v>
       </c>
@@ -6021,7 +6045,7 @@
         <v>1.2527E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-3.4391999999999999E-2</v>
       </c>
@@ -6137,7 +6161,7 @@
         <v>1.0567E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3.0145000000000002E-2</v>
       </c>
@@ -6253,7 +6277,7 @@
         <v>8.8679999999999991E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.5998E-2</v>
       </c>
@@ -6369,7 +6393,7 @@
         <v>7.7060000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.2898000000000002E-2</v>
       </c>
@@ -6485,7 +6509,7 @@
         <v>6.679E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.0032000000000001E-2</v>
       </c>
@@ -6601,7 +6625,7 @@
         <v>5.6899999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.7579000000000001E-2</v>
       </c>
@@ -6717,7 +6741,7 @@
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.5637999999999999E-2</v>
       </c>
@@ -6833,7 +6857,7 @@
         <v>4.444E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.3892E-2</v>
       </c>
@@ -6949,7 +6973,7 @@
         <v>4.0090000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.1993999999999999E-2</v>
       </c>
@@ -7065,7 +7089,7 @@
         <v>3.4589999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.0363000000000001E-2</v>
       </c>
@@ -7181,7 +7205,7 @@
         <v>3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-9.1570000000000002E-3</v>
       </c>
@@ -7297,7 +7321,7 @@
         <v>2.647E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-8.1689999999999992E-3</v>
       </c>
@@ -7413,7 +7437,7 @@
         <v>2.4429999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-6.6540000000000002E-3</v>
       </c>
@@ -7529,7 +7553,7 @@
         <v>2.14E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-5.8110000000000002E-3</v>
       </c>
@@ -7645,7 +7669,7 @@
         <v>1.9189999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.9950000000000003E-3</v>
       </c>
@@ -7761,7 +7785,7 @@
         <v>1.7149999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.1580000000000002E-3</v>
       </c>
@@ -7877,7 +7901,7 @@
         <v>1.382E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.4190000000000002E-3</v>
       </c>
@@ -7993,7 +8017,7 @@
         <v>1.2930000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.6570000000000001E-3</v>
       </c>
@@ -8109,7 +8133,7 @@
         <v>1.127E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.5019999999999999E-3</v>
       </c>
@@ -8225,7 +8249,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.9650000000000002E-3</v>
       </c>
@@ -8341,7 +8365,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.604E-3</v>
       </c>
@@ -8457,7 +8481,7 @@
         <v>8.3299999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.2689999999999999E-3</v>
       </c>
@@ -8573,7 +8597,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-6.5399999999999996E-4</v>
       </c>
@@ -8689,7 +8713,7 @@
         <v>7.4399999999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-6.7000000000000002E-4</v>
       </c>
@@ -8805,7 +8829,7 @@
         <v>6.7900000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.54E-4</v>
       </c>
@@ -8921,7 +8945,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.4499999999999998E-4</v>
       </c>
@@ -9037,7 +9061,7 @@
         <v>6.5099999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.5399999999999998E-4</v>
       </c>
@@ -9153,7 +9177,7 @@
         <v>6.7000000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.6200000000000001E-4</v>
       </c>
@@ -9269,7 +9293,7 @@
         <v>6.78E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.7100000000000001E-4</v>
       </c>
@@ -9385,7 +9409,7 @@
         <v>6.4499999999999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.76E-4</v>
       </c>
@@ -9501,7 +9525,7 @@
         <v>6.1200000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.1499999999999999E-4</v>
       </c>
@@ -9617,7 +9641,7 @@
         <v>5.1900000000000004E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -9733,7 +9757,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3.1300000000000002E-4</v>
       </c>
@@ -9849,7 +9873,7 @@
         <v>3.59E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8.0800000000000002E-4</v>
       </c>
@@ -9965,7 +9989,7 @@
         <v>2.61E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.696E-3</v>
       </c>
@@ -10081,7 +10105,7 @@
         <v>-1.573E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.4809999999999999E-3</v>
       </c>
@@ -10197,7 +10221,7 @@
         <v>-1.4599999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.547E-3</v>
       </c>
@@ -10313,7 +10337,7 @@
         <v>-1.405E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.534E-3</v>
       </c>
@@ -10429,7 +10453,7 @@
         <v>-1.279E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.5150000000000001E-3</v>
       </c>
@@ -10545,7 +10569,7 @@
         <v>-1.204E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.6800000000000001E-3</v>
       </c>
@@ -10661,7 +10685,7 @@
         <v>-1.132E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.6050000000000001E-3</v>
       </c>
@@ -10777,7 +10801,7 @@
         <v>-1.005E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.6019999999999999E-3</v>
       </c>
@@ -10893,7 +10917,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.665E-3</v>
       </c>
@@ -11009,7 +11033,7 @@
         <v>-8.7100000000000003E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.668E-3</v>
       </c>
@@ -11125,7 +11149,7 @@
         <v>-7.8399999999999997E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.663E-3</v>
       </c>
@@ -11241,7 +11265,7 @@
         <v>-7.2099999999999996E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.6720000000000001E-3</v>
       </c>
@@ -11357,7 +11381,7 @@
         <v>-6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.6850000000000001E-3</v>
       </c>
@@ -11473,7 +11497,7 @@
         <v>-6.5899999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.7819999999999999E-3</v>
       </c>
@@ -11589,7 +11613,7 @@
         <v>-5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.758E-3</v>
       </c>
@@ -11705,7 +11729,7 @@
         <v>-4.9100000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.622E-3</v>
       </c>
@@ -11821,7 +11845,7 @@
         <v>-4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1.457E-3</v>
       </c>
@@ -11937,7 +11961,7 @@
         <v>-3.7399999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.333E-3</v>
       </c>
@@ -12053,7 +12077,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.354E-3</v>
       </c>
@@ -12169,7 +12193,7 @@
         <v>-3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.42E-3</v>
       </c>
@@ -12285,7 +12309,7 @@
         <v>-2.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1.2620000000000001E-3</v>
       </c>
@@ -12401,7 +12425,7 @@
         <v>-1.44E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1.1479999999999999E-3</v>
       </c>
@@ -12517,7 +12541,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.191E-3</v>
       </c>
@@ -12633,7 +12657,7 @@
         <v>-4.1E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.2440000000000001E-3</v>
       </c>
@@ -12749,7 +12773,7 @@
         <v>-5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1.0859999999999999E-3</v>
       </c>
@@ -12865,7 +12889,7 @@
         <v>-5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -12981,7 +13005,7 @@
         <v>-6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9.0200000000000002E-4</v>
       </c>
@@ -13097,7 +13121,7 @@
         <v>-1.94E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.1460000000000001E-3</v>
       </c>
@@ -13213,7 +13237,7 @@
         <v>-2.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.474E-3</v>
       </c>
@@ -13329,7 +13353,7 @@
         <v>-3.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.794E-3</v>
       </c>
@@ -13445,7 +13469,7 @@
         <v>-5.7799999999999995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.9300000000000001E-3</v>
       </c>
@@ -13561,7 +13585,7 @@
         <v>-7.0899999999999999E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.032E-3</v>
       </c>
@@ -13677,7 +13701,7 @@
         <v>-8.43E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.7619999999999999E-3</v>
       </c>
@@ -13793,7 +13817,7 @@
         <v>-8.8199999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -13909,7 +13933,7 @@
         <v>-9.6599999999999995E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.6299999999999999E-3</v>
       </c>
@@ -14025,7 +14049,7 @@
         <v>-1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1.4989999999999999E-3</v>
       </c>
@@ -14141,19 +14165,19 @@
         <v>-1.023E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
     </row>
   </sheetData>
@@ -14167,9 +14191,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6.502E-3</v>
       </c>
@@ -14285,7 +14309,7 @@
         <v>-2.9305999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.5399999999999998E-3</v>
       </c>
@@ -14401,7 +14425,7 @@
         <v>-2.8257000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.371E-3</v>
       </c>
@@ -14517,7 +14541,7 @@
         <v>-2.5447999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.3499999999999997E-3</v>
       </c>
@@ -14633,7 +14657,7 @@
         <v>-2.5898000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9789999999999999E-3</v>
       </c>
@@ -14749,7 +14773,7 @@
         <v>-2.5122999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.0700000000000008E-3</v>
       </c>
@@ -14865,7 +14889,7 @@
         <v>-2.4976999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.9559999999999995E-3</v>
       </c>
@@ -14981,7 +15005,7 @@
         <v>-2.4431999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0073E-2</v>
       </c>
@@ -15097,7 +15121,7 @@
         <v>-2.5092E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.2914999999999999E-2</v>
       </c>
@@ -15213,7 +15237,7 @@
         <v>-2.4013E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.3252E-2</v>
       </c>
@@ -15329,7 +15353,7 @@
         <v>-2.4847999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.5432E-2</v>
       </c>
@@ -15445,7 +15469,7 @@
         <v>-2.4327999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.5630999999999999E-2</v>
       </c>
@@ -15561,7 +15585,7 @@
         <v>-2.4232E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.6574999999999999E-2</v>
       </c>
@@ -15677,7 +15701,7 @@
         <v>-2.4160000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7505E-2</v>
       </c>
@@ -15793,7 +15817,7 @@
         <v>-2.3446999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.8298999999999999E-2</v>
       </c>
@@ -15909,7 +15933,7 @@
         <v>-2.3361E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.8811000000000001E-2</v>
       </c>
@@ -16025,7 +16049,7 @@
         <v>-2.3258999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9082999999999999E-2</v>
       </c>
@@ -16141,7 +16165,7 @@
         <v>-2.2512999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.9411000000000001E-2</v>
       </c>
@@ -16257,7 +16281,7 @@
         <v>-2.2519999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.9425999999999999E-2</v>
       </c>
@@ -16373,7 +16397,7 @@
         <v>-2.2197000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.8971999999999999E-2</v>
       </c>
@@ -16489,7 +16513,7 @@
         <v>-2.1777999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.8988999999999999E-2</v>
       </c>
@@ -16605,7 +16629,7 @@
         <v>-2.1957999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.9675999999999999E-2</v>
       </c>
@@ -16721,7 +16745,7 @@
         <v>-2.1429E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.9005000000000001E-2</v>
       </c>
@@ -16837,7 +16861,7 @@
         <v>-2.1170000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.9892E-2</v>
       </c>
@@ -16953,7 +16977,7 @@
         <v>-2.1034000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.968E-2</v>
       </c>
@@ -17069,7 +17093,7 @@
         <v>-2.0567999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.9866000000000002E-2</v>
       </c>
@@ -17185,7 +17209,7 @@
         <v>-2.0317999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.0230000000000001E-2</v>
       </c>
@@ -17301,7 +17325,7 @@
         <v>-1.9931000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.0452000000000001E-2</v>
       </c>
@@ -17417,7 +17441,7 @@
         <v>-1.9397999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.1274000000000001E-2</v>
       </c>
@@ -17533,7 +17557,7 @@
         <v>-1.9109000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.1624999999999998E-2</v>
       </c>
@@ -17649,7 +17673,7 @@
         <v>-1.8602E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.1729999999999999E-2</v>
       </c>
@@ -17765,7 +17789,7 @@
         <v>-1.8255E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.2558000000000002E-2</v>
       </c>
@@ -17881,7 +17905,7 @@
         <v>-1.797E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.2578999999999998E-2</v>
       </c>
@@ -17997,7 +18021,7 @@
         <v>-1.7409000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.2261E-2</v>
       </c>
@@ -18113,7 +18137,7 @@
         <v>-1.7328E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.2717999999999999E-2</v>
       </c>
@@ -18229,7 +18253,7 @@
         <v>-1.6914999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.2329000000000002E-2</v>
       </c>
@@ -18345,7 +18369,7 @@
         <v>-1.6785000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.1847999999999999E-2</v>
       </c>
@@ -18461,7 +18485,7 @@
         <v>-1.6666E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.1981000000000001E-2</v>
       </c>
@@ -18577,7 +18601,7 @@
         <v>-1.6521999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.1208000000000001E-2</v>
       </c>
@@ -18693,7 +18717,7 @@
         <v>-1.6521999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.1294E-2</v>
       </c>
@@ -18809,7 +18833,7 @@
         <v>-1.6392E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.0708000000000001E-2</v>
       </c>
@@ -18925,7 +18949,7 @@
         <v>-1.6354E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1.9826E-2</v>
       </c>
@@ -19041,7 +19065,7 @@
         <v>-1.6288E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.9868E-2</v>
       </c>
@@ -19157,7 +19181,7 @@
         <v>-1.6088000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.0799999999999999E-2</v>
       </c>
@@ -19273,7 +19297,7 @@
         <v>-1.6532999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.0517000000000001E-2</v>
       </c>
@@ -19389,7 +19413,7 @@
         <v>-1.6351000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.9968E-2</v>
       </c>
@@ -19505,7 +19529,7 @@
         <v>-1.6223000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.9796000000000001E-2</v>
       </c>
@@ -19621,7 +19645,7 @@
         <v>-1.5918000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.9779999999999999E-2</v>
       </c>
@@ -19737,7 +19761,7 @@
         <v>-1.5764E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.9553999999999998E-2</v>
       </c>
@@ -19853,7 +19877,7 @@
         <v>-1.5539000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.9227000000000001E-2</v>
       </c>
@@ -19969,7 +19993,7 @@
         <v>-1.5192000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.9098E-2</v>
       </c>
@@ -20085,7 +20109,7 @@
         <v>-1.4964999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.9073E-2</v>
       </c>
@@ -20201,7 +20225,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.9203999999999999E-2</v>
       </c>
@@ -20317,7 +20341,7 @@
         <v>-1.4231000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.933E-2</v>
       </c>
@@ -20433,7 +20457,7 @@
         <v>-1.3998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.9584000000000001E-2</v>
       </c>
@@ -20549,7 +20573,7 @@
         <v>-1.3592999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.9663E-2</v>
       </c>
@@ -20665,7 +20689,7 @@
         <v>-1.3239000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.9935000000000001E-2</v>
       </c>
@@ -20781,7 +20805,7 @@
         <v>-1.285E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.9657999999999998E-2</v>
       </c>
@@ -20897,7 +20921,7 @@
         <v>-1.2655E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.0233999999999999E-2</v>
       </c>
@@ -21013,7 +21037,7 @@
         <v>-1.2307999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.0622999999999999E-2</v>
       </c>
@@ -21129,7 +21153,7 @@
         <v>-1.1939999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.0405E-2</v>
       </c>
@@ -21245,7 +21269,7 @@
         <v>-1.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.0618999999999998E-2</v>
       </c>
@@ -21361,7 +21385,7 @@
         <v>-1.1449000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.0497000000000001E-2</v>
       </c>
@@ -21477,7 +21501,7 @@
         <v>-1.1176999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.0379000000000001E-2</v>
       </c>
@@ -21593,7 +21617,7 @@
         <v>-1.1072E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2.0708000000000001E-2</v>
       </c>
@@ -21709,7 +21733,7 @@
         <v>-1.0766E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.0153000000000001E-2</v>
       </c>
@@ -21825,7 +21849,7 @@
         <v>-1.0642E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.9996E-2</v>
       </c>
@@ -21941,7 +21965,7 @@
         <v>-1.0557E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1.9701E-2</v>
       </c>
@@ -22057,7 +22081,7 @@
         <v>-1.0295E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.9044999999999999E-2</v>
       </c>
@@ -22173,7 +22197,7 @@
         <v>-1.0415000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.9299E-2</v>
       </c>
@@ -22289,7 +22313,7 @@
         <v>-1.0260999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.9092000000000001E-2</v>
       </c>
@@ -22405,7 +22429,7 @@
         <v>-1.0182999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.8817E-2</v>
       </c>
@@ -22521,7 +22545,7 @@
         <v>-1.0163999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.8679999999999999E-2</v>
       </c>
@@ -22637,7 +22661,7 @@
         <v>-9.9260000000000008E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.8279E-2</v>
       </c>
@@ -22753,7 +22777,7 @@
         <v>-9.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.7995000000000001E-2</v>
       </c>
@@ -22869,7 +22893,7 @@
         <v>-1.0043E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.8428E-2</v>
       </c>
@@ -22985,7 +23009,7 @@
         <v>-9.6039999999999997E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.7512E-2</v>
       </c>
@@ -23101,7 +23125,7 @@
         <v>-9.8119999999999995E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.7756000000000001E-2</v>
       </c>
@@ -23217,7 +23241,7 @@
         <v>-9.6749999999999996E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1.9252999999999999E-2</v>
       </c>
@@ -23333,16 +23357,16 @@
         <v>-9.2589999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
     </row>
   </sheetData>
@@ -23356,9 +23380,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-5.3560000000000003E-2</v>
       </c>
@@ -23471,7 +23495,7 @@
         <v>1.1622E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.2927E-2</v>
       </c>
@@ -23584,7 +23608,7 @@
         <v>4.9179999999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.9131000000000001E-2</v>
       </c>
@@ -23697,7 +23721,7 @@
         <v>-1.606E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.6140000000000002E-2</v>
       </c>
@@ -23810,7 +23834,7 @@
         <v>-5.8269999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.2810999999999999E-2</v>
       </c>
@@ -23923,7 +23947,7 @@
         <v>-9.1459999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-6.5880000000000001E-3</v>
       </c>
@@ -24036,7 +24060,7 @@
         <v>-1.0056000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.0949999999999997E-3</v>
       </c>
@@ -24149,7 +24173,7 @@
         <v>-1.0015E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.163E-3</v>
       </c>
@@ -24262,7 +24286,7 @@
         <v>-9.7540000000000005E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.8990000000000001E-3</v>
       </c>
@@ -24375,7 +24399,7 @@
         <v>-9.4629999999999992E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.0599999999999999E-4</v>
       </c>
@@ -24488,7 +24512,7 @@
         <v>-8.6949999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.0499999999999998E-4</v>
       </c>
@@ -24601,7 +24625,7 @@
         <v>-8.4740000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.7599999999999999E-4</v>
       </c>
@@ -24714,7 +24738,7 @@
         <v>-7.561E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.8999999999999997E-4</v>
       </c>
@@ -24827,7 +24851,7 @@
         <v>-7.0439999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -24940,7 +24964,7 @@
         <v>-6.5849999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.5900000000000001E-4</v>
       </c>
@@ -25053,7 +25077,7 @@
         <v>-6.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.3200000000000003E-4</v>
       </c>
@@ -25166,7 +25190,7 @@
         <v>-5.5579999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.9999999999999994E-5</v>
       </c>
@@ -25279,7 +25303,7 @@
         <v>-5.391E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.85E-4</v>
       </c>
@@ -25392,7 +25416,7 @@
         <v>-4.9220000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.4300000000000001E-4</v>
       </c>
@@ -25505,7 +25529,7 @@
         <v>-4.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.5899999999999999E-4</v>
       </c>
@@ -25618,7 +25642,7 @@
         <v>-4.3420000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.4700000000000002E-4</v>
       </c>
@@ -25731,7 +25755,7 @@
         <v>-4.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-7.85E-4</v>
       </c>
@@ -25844,7 +25868,7 @@
         <v>-3.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0449999999999999E-3</v>
       </c>
@@ -25957,7 +25981,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.4189999999999999E-3</v>
       </c>
@@ -26070,7 +26094,7 @@
         <v>-3.3379999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.7819999999999999E-3</v>
       </c>
@@ -26183,7 +26207,7 @@
         <v>-3.1129999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.951E-3</v>
       </c>
@@ -26296,7 +26320,7 @@
         <v>-2.879E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.222E-3</v>
       </c>
@@ -26409,7 +26433,7 @@
         <v>-2.663E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.562E-3</v>
       </c>
@@ -26522,7 +26546,7 @@
         <v>-2.555E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.892E-3</v>
       </c>
@@ -26635,7 +26659,7 @@
         <v>-2.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.1700000000000001E-3</v>
       </c>
@@ -26748,7 +26772,7 @@
         <v>-2.271E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.4619999999999998E-3</v>
       </c>
@@ -26861,7 +26885,7 @@
         <v>-2.1120000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.852E-3</v>
       </c>
@@ -26974,7 +26998,7 @@
         <v>-2.0939999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3.999E-3</v>
       </c>
@@ -27087,7 +27111,7 @@
         <v>-1.9610000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-4.2579999999999996E-3</v>
       </c>
@@ -27200,7 +27224,7 @@
         <v>-1.853E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-4.3559999999999996E-3</v>
       </c>
@@ -27313,7 +27337,7 @@
         <v>-1.8109999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.7590000000000002E-3</v>
       </c>
@@ -27426,7 +27450,7 @@
         <v>-1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-5.1269999999999996E-3</v>
       </c>
@@ -27539,7 +27563,7 @@
         <v>-1.722E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.284E-3</v>
       </c>
@@ -27652,7 +27676,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.1050000000000001E-3</v>
       </c>
@@ -27765,7 +27789,7 @@
         <v>-2.2850000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.036E-3</v>
       </c>
@@ -27878,7 +27902,7 @@
         <v>-2.4030000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -27991,7 +28015,7 @@
         <v>-2.4689999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3.86E-4</v>
       </c>
@@ -28104,7 +28128,7 @@
         <v>-2.5149999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8.3900000000000001E-4</v>
       </c>
@@ -28217,7 +28241,7 @@
         <v>-2.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.3090000000000001E-3</v>
       </c>
@@ -28330,7 +28354,7 @@
         <v>-2.7929999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.549E-3</v>
       </c>
@@ -28443,7 +28467,7 @@
         <v>-2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.65E-3</v>
       </c>
@@ -28556,7 +28580,7 @@
         <v>-3.0439999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.7979999999999999E-3</v>
       </c>
@@ -28669,7 +28693,7 @@
         <v>-3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.6249999999999999E-3</v>
       </c>
@@ -28782,7 +28806,7 @@
         <v>-3.1289999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.3569999999999999E-3</v>
       </c>
@@ -28895,7 +28919,7 @@
         <v>-3.107E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.286E-3</v>
       </c>
@@ -29008,7 +29032,7 @@
         <v>-3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -29121,7 +29145,7 @@
         <v>-3.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.0070000000000001E-3</v>
       </c>
@@ -29234,7 +29258,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7.0699999999999995E-4</v>
       </c>
@@ -29347,7 +29371,7 @@
         <v>-2.8730000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7.8200000000000003E-4</v>
       </c>
@@ -29460,7 +29484,7 @@
         <v>-2.7690000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6.9300000000000004E-4</v>
       </c>
@@ -29573,7 +29597,7 @@
         <v>-2.7109999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6.6200000000000005E-4</v>
       </c>
@@ -29686,7 +29710,7 @@
         <v>-2.598E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7.8200000000000003E-4</v>
       </c>
@@ -29799,7 +29823,7 @@
         <v>-2.529E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>8.1400000000000005E-4</v>
       </c>
@@ -29912,7 +29936,7 @@
         <v>-2.4629999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6.0599999999999998E-4</v>
       </c>
@@ -30025,7 +30049,7 @@
         <v>-2.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4.6900000000000002E-4</v>
       </c>
@@ -30138,7 +30162,7 @@
         <v>-2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3.0600000000000001E-4</v>
       </c>
@@ -30251,7 +30275,7 @@
         <v>-2.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.2799999999999999E-4</v>
       </c>
@@ -30364,7 +30388,7 @@
         <v>-2.2750000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-1.95E-4</v>
       </c>
@@ -30477,7 +30501,7 @@
         <v>-2.2209999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-4.6200000000000001E-4</v>
       </c>
@@ -30590,7 +30614,7 @@
         <v>-2.212E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-6.8000000000000005E-4</v>
       </c>
@@ -30703,7 +30727,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-1.034E-3</v>
       </c>
@@ -30816,7 +30840,7 @@
         <v>-2.134E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-1.5269999999999999E-3</v>
       </c>
@@ -30929,7 +30953,7 @@
         <v>-2.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-1.707E-3</v>
       </c>
@@ -31042,7 +31066,7 @@
         <v>-2.0230000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-1.91E-3</v>
       </c>
@@ -31155,7 +31179,7 @@
         <v>-1.9419999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-2.2269999999999998E-3</v>
       </c>
@@ -31268,7 +31292,7 @@
         <v>-1.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-2.5730000000000002E-3</v>
       </c>
@@ -31381,7 +31405,7 @@
         <v>-1.8879999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-2.7959999999999999E-3</v>
       </c>
@@ -31494,7 +31518,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-2.8730000000000001E-3</v>
       </c>
@@ -31607,7 +31631,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-3.3939999999999999E-3</v>
       </c>
@@ -31720,7 +31744,7 @@
         <v>-1.6980000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-3.5720000000000001E-3</v>
       </c>
@@ -31833,7 +31857,7 @@
         <v>-1.7080000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-3.7230000000000002E-3</v>
       </c>
@@ -31946,7 +31970,7 @@
         <v>-1.7179999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-3.9129999999999998E-3</v>
       </c>
@@ -32059,7 +32083,7 @@
         <v>-1.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-3.5739999999999999E-3</v>
       </c>
@@ -32172,7 +32196,7 @@
         <v>-1.5269999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-3.4689999999999999E-3</v>
       </c>
@@ -32285,7 +32309,7 @@
         <v>-1.6169999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-3.6600000000000001E-3</v>
       </c>
@@ -32398,7 +32422,7 @@
         <v>-1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-3.7330000000000002E-3</v>
       </c>
@@ -32511,7 +32535,7 @@
         <v>-1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -32635,9 +32659,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6.0897E-2</v>
       </c>
@@ -32750,7 +32774,7 @@
         <v>-1.9911000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.2018000000000002E-2</v>
       </c>
@@ -32863,7 +32887,7 @@
         <v>-1.7957000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.7570000000000001E-2</v>
       </c>
@@ -32976,7 +33000,7 @@
         <v>-1.3519E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.9024999999999997E-2</v>
       </c>
@@ -33089,7 +33113,7 @@
         <v>-1.1037E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.3345E-2</v>
       </c>
@@ -33202,7 +33226,7 @@
         <v>-9.9810000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.7323E-2</v>
       </c>
@@ -33315,7 +33339,7 @@
         <v>-8.3540000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.3375E-2</v>
       </c>
@@ -33428,7 +33452,7 @@
         <v>-6.0850000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7595E-2</v>
       </c>
@@ -33541,7 +33565,7 @@
         <v>-5.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5472E-2</v>
       </c>
@@ -33654,7 +33678,7 @@
         <v>-3.7209999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.0949E-2</v>
       </c>
@@ -33767,7 +33791,7 @@
         <v>-3.5209999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.2219999999999993E-3</v>
       </c>
@@ -33880,7 +33904,7 @@
         <v>-2.637E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.2830000000000004E-3</v>
       </c>
@@ -33993,7 +34017,7 @@
         <v>-2.3679999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.5530000000000002E-3</v>
       </c>
@@ -34106,7 +34130,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.8709999999999999E-3</v>
       </c>
@@ -34219,7 +34243,7 @@
         <v>-1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2.7300000000000002E-4</v>
       </c>
@@ -34332,7 +34356,7 @@
         <v>-1.266E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.358E-3</v>
       </c>
@@ -34445,7 +34469,7 @@
         <v>-8.83E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.4890000000000001E-3</v>
       </c>
@@ -34558,7 +34582,7 @@
         <v>-6.1700000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.9399999999999999E-3</v>
       </c>
@@ -34671,7 +34695,7 @@
         <v>-5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.346E-3</v>
       </c>
@@ -34784,7 +34808,7 @@
         <v>-3.88E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-4.078E-3</v>
       </c>
@@ -34897,7 +34921,7 @@
         <v>-3.4400000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.1070000000000004E-3</v>
       </c>
@@ -35010,7 +35034,7 @@
         <v>-3.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-4.7629999999999999E-3</v>
       </c>
@@ -35123,7 +35147,7 @@
         <v>-8.6000000000000003E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.6930000000000001E-3</v>
       </c>
@@ -35236,7 +35260,7 @@
         <v>-4.6E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-5.8609999999999999E-3</v>
       </c>
@@ -35349,7 +35373,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-5.4380000000000001E-3</v>
       </c>
@@ -35462,7 +35486,7 @@
         <v>2.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-5.8989999999999997E-3</v>
       </c>
@@ -35575,7 +35599,7 @@
         <v>1.6899999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-6.208E-3</v>
       </c>
@@ -35688,7 +35712,7 @@
         <v>3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-6.1330000000000004E-3</v>
       </c>
@@ -35801,7 +35825,7 @@
         <v>5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-6.6750000000000004E-3</v>
       </c>
@@ -35914,7 +35938,7 @@
         <v>3.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-7.0679999999999996E-3</v>
       </c>
@@ -36027,7 +36051,7 @@
         <v>4.84E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-6.9100000000000003E-3</v>
       </c>
@@ -36140,7 +36164,7 @@
         <v>5.3200000000000003E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-7.4700000000000001E-3</v>
       </c>
@@ -36253,7 +36277,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-7.3489999999999996E-3</v>
       </c>
@@ -36366,7 +36390,7 @@
         <v>4.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-7.4440000000000001E-3</v>
       </c>
@@ -36479,7 +36503,7 @@
         <v>4.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-7.5440000000000004E-3</v>
       </c>
@@ -36592,7 +36616,7 @@
         <v>4.8500000000000003E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-7.6689999999999996E-3</v>
       </c>
@@ -36705,7 +36729,7 @@
         <v>2.5500000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-7.4879999999999999E-3</v>
       </c>
@@ -36818,7 +36842,7 @@
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.7850000000000002E-3</v>
       </c>
@@ -36931,7 +36955,7 @@
         <v>-7.2599999999999997E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-4.3819999999999996E-3</v>
       </c>
@@ -37044,7 +37068,7 @@
         <v>-6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-4.4039999999999999E-3</v>
       </c>
@@ -37157,7 +37181,7 @@
         <v>-7.3700000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-4.6059999999999999E-3</v>
       </c>
@@ -37270,7 +37294,7 @@
         <v>-5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-4.7369999999999999E-3</v>
       </c>
@@ -37383,7 +37407,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-4.6800000000000001E-3</v>
       </c>
@@ -37496,7 +37520,7 @@
         <v>-5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-4.7590000000000002E-3</v>
       </c>
@@ -37609,7 +37633,7 @@
         <v>-4.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-4.6610000000000002E-3</v>
       </c>
@@ -37722,7 +37746,7 @@
         <v>-4.46E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-4.8199999999999996E-3</v>
       </c>
@@ -37835,7 +37859,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-4.8079999999999998E-3</v>
       </c>
@@ -37948,7 +37972,7 @@
         <v>-3.1599999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-4.8770000000000003E-3</v>
       </c>
@@ -38061,7 +38085,7 @@
         <v>-2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-5.0569999999999999E-3</v>
       </c>
@@ -38174,7 +38198,7 @@
         <v>-2.24E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-4.7990000000000003E-3</v>
       </c>
@@ -38287,7 +38311,7 @@
         <v>-1.44E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-4.8690000000000001E-3</v>
       </c>
@@ -38400,7 +38424,7 @@
         <v>-1.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-5.0400000000000002E-3</v>
       </c>
@@ -38513,7 +38537,7 @@
         <v>-2.14E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-5.1720000000000004E-3</v>
       </c>
@@ -38626,7 +38650,7 @@
         <v>-1.08E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-5.189E-3</v>
       </c>
@@ -38739,7 +38763,7 @@
         <v>-1.75E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-5.7850000000000002E-3</v>
       </c>
@@ -38852,7 +38876,7 @@
         <v>-2.2900000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-6.267E-3</v>
       </c>
@@ -38965,7 +38989,7 @@
         <v>-1.73E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-6.5579999999999996E-3</v>
       </c>
@@ -39078,7 +39102,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-6.509E-3</v>
       </c>
@@ -39191,7 +39215,7 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-6.6259999999999999E-3</v>
       </c>
@@ -39304,7 +39328,7 @@
         <v>-2.2699999999999999E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-6.7359999999999998E-3</v>
       </c>
@@ -39417,7 +39441,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-6.2560000000000003E-3</v>
       </c>
@@ -39530,7 +39554,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-5.7759999999999999E-3</v>
       </c>
@@ -39643,7 +39667,7 @@
         <v>-1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-6.0239999999999998E-3</v>
       </c>
@@ -39756,7 +39780,7 @@
         <v>-3.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-5.8950000000000001E-3</v>
       </c>
@@ -39869,7 +39893,7 @@
         <v>-3.39E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-5.731E-3</v>
       </c>
@@ -39982,7 +40006,7 @@
         <v>-2.4600000000000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-6.1469999999999997E-3</v>
       </c>
@@ -40095,7 +40119,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-5.9959999999999996E-3</v>
       </c>
@@ -40208,7 +40232,7 @@
         <v>-2.3499999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-6.0270000000000002E-3</v>
       </c>
@@ -40321,7 +40345,7 @@
         <v>-3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-5.8529999999999997E-3</v>
       </c>
@@ -40434,7 +40458,7 @@
         <v>-1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-6.463E-3</v>
       </c>
@@ -40547,7 +40571,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-6.5849999999999997E-3</v>
       </c>
@@ -40660,7 +40684,7 @@
         <v>-1.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-6.7669999999999996E-3</v>
       </c>
@@ -40773,7 +40797,7 @@
         <v>-2.32E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-6.6680000000000003E-3</v>
       </c>
@@ -40886,7 +40910,7 @@
         <v>-1.54E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-6.6179999999999998E-3</v>
       </c>
@@ -40999,7 +41023,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-6.8960000000000002E-3</v>
       </c>
@@ -41112,7 +41136,7 @@
         <v>-2.3599999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-7.5009999999999999E-3</v>
       </c>
@@ -41225,7 +41249,7 @@
         <v>-3.21E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-6.4009999999999996E-3</v>
       </c>
@@ -41338,7 +41362,7 @@
         <v>-2.03E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-6.3870000000000003E-3</v>
       </c>
@@ -41451,7 +41475,7 @@
         <v>-2.22E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-6.4689999999999999E-3</v>
       </c>
@@ -41564,7 +41588,7 @@
         <v>-4.0099999999999999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-6.803E-3</v>
       </c>
@@ -41677,7 +41701,7 @@
         <v>-5.2300000000000003E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-5.8910000000000004E-3</v>
       </c>
@@ -41790,7 +41814,7 @@
         <v>-4.3800000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-6.3080000000000002E-3</v>
       </c>

--- a/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00001.xlsx
+++ b/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="2220" windowWidth="29740" windowHeight="18260" tabRatio="766"/>
+    <workbookView xWindow="2055" yWindow="2220" windowWidth="29745" windowHeight="16440" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="204">
   <si>
     <t>Ref Des</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Calibration Cofficient Value</t>
-  </si>
-  <si>
-    <t>CP03ISSM-SBD11-01-MOPAKO000</t>
   </si>
   <si>
     <t>CP03ISSM-00001-MOPAK</t>
@@ -674,14 +671,31 @@
   <si>
     <t>CP01CNSM-MFD37-07-ZPLSCC000</t>
   </si>
+  <si>
+    <t>CP03ISSM-00001-SBD12-HYDGN</t>
+  </si>
+  <si>
+    <t>CP03ISSM-00001-SBD11-HYDGN</t>
+  </si>
+  <si>
+    <t>CP03ISSM-RID26-05-ACOMM0000</t>
+  </si>
+  <si>
+    <t>40°21.733'N</t>
+  </si>
+  <si>
+    <t>70°52.717'W</t>
+  </si>
+  <si>
+    <t>CP03ISSM-SBD11-01-MOPAK0000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -896,13 +910,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -914,7 +928,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,7 +947,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,6 +1079,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1392,24 +1411,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="10"/>
-    <col min="2" max="2" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="10"/>
+    <col min="2" max="2" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="12"/>
-    <col min="6" max="6" width="8.83203125" style="11"/>
-    <col min="7" max="10" width="8.83203125" style="10"/>
-    <col min="11" max="11" width="35.5" style="10" customWidth="1"/>
-    <col min="12" max="1025" width="8.83203125" style="10"/>
+    <col min="5" max="5" width="8.85546875" style="12"/>
+    <col min="6" max="6" width="8.85546875" style="11"/>
+    <col min="7" max="7" width="13.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15" style="10" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="10"/>
+    <col min="11" max="11" width="35.42578125" style="10" customWidth="1"/>
+    <col min="12" max="1025" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="42">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -1463,11 +1484,11 @@
       <c r="F2" s="9">
         <v>42003</v>
       </c>
-      <c r="G2" s="20">
-        <v>40.362299999999998</v>
-      </c>
-      <c r="H2" s="20">
-        <v>-70.878699999999995</v>
+      <c r="G2" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="I2" s="8">
         <v>94</v>
@@ -1476,7 +1497,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -1496,25 +1517,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67:F69"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" style="25" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="25"/>
+    <col min="5" max="5" width="45.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" style="25" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="27" customFormat="1">
+    <row r="1" spans="1:1024" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2563,9 +2584,9 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>12</v>
@@ -2574,12 +2595,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -3599,9 +3620,9 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="5" spans="1:1024" s="6" customFormat="1">
+    <row r="5" spans="1:1024" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -3609,14 +3630,16 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="29" t="s">
+        <v>199</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="7" spans="1:1024">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>12</v>
@@ -3625,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="25">
         <v>40.362341666666701</v>
@@ -4652,9 +4675,9 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>12</v>
@@ -4663,10 +4686,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="25">
         <v>-70.878614999999996</v>
@@ -5690,9 +5713,9 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>12</v>
@@ -5701,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="25">
         <v>1.0668</v>
@@ -6728,9 +6751,9 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>12</v>
@@ -6739,10 +6762,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="25">
         <v>4.2926000000000002</v>
@@ -7766,9 +7789,9 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>12</v>
@@ -7777,10 +7800,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="25">
         <v>4.2926000000000002</v>
@@ -8804,9 +8827,9 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>12</v>
@@ -8815,10 +8838,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="25">
         <v>4.7497999999999996</v>
@@ -9842,9 +9865,9 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>12</v>
@@ -9853,18 +9876,20 @@
         <v>1</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13"/>
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>200</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -10882,9 +10907,9 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>12</v>
@@ -10893,16 +10918,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -11922,9 +11947,9 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>12</v>
@@ -11933,18 +11958,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="25">
         <v>600</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15"/>
+        <v>29</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -12962,7 +12986,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -12970,7 +12994,6 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -13988,9 +14011,9 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="6" customFormat="1">
+    <row r="17" spans="1:1024" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -13998,14 +14021,16 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="19" spans="1:1024">
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>12</v>
@@ -14014,14 +14039,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19"/>
+        <v>34</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -15039,7 +15063,7 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024">
+    <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -15047,7 +15071,6 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -16065,9 +16088,9 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024">
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>12</v>
@@ -16076,16 +16099,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="25">
         <v>40.362341666666701</v>
       </c>
       <c r="G21"/>
-      <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -17103,9 +17125,9 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024">
+    <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>12</v>
@@ -17114,16 +17136,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="25">
         <v>-70.878614999999996</v>
       </c>
       <c r="G22"/>
-      <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -18141,7 +18162,7 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -18149,7 +18170,6 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -19167,9 +19187,9 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024">
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>12</v>
@@ -19178,16 +19198,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="25">
         <v>40.362341666666701</v>
       </c>
       <c r="G24"/>
-      <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -20205,9 +20224,9 @@
       <c r="AMI24"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024">
+    <row r="25" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>12</v>
@@ -20216,16 +20235,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="25">
         <v>-70.878614999999996</v>
       </c>
       <c r="G25"/>
-      <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -21243,7 +21261,7 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024">
+    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -21251,7 +21269,6 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -22269,9 +22286,9 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024">
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>12</v>
@@ -22280,16 +22297,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="F27" s="25">
         <v>17533</v>
       </c>
       <c r="G27"/>
-      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -23307,9 +23323,9 @@
       <c r="AMI27"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024">
+    <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>12</v>
@@ -23318,16 +23334,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="25">
         <v>101</v>
       </c>
       <c r="G28"/>
-      <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -24345,9 +24360,9 @@
       <c r="AMI28"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024">
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>12</v>
@@ -24356,16 +24371,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="25">
         <v>2229</v>
       </c>
       <c r="G29"/>
-      <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -25383,9 +25397,9 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024">
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>12</v>
@@ -25394,10 +25408,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="25">
         <v>38502</v>
@@ -26421,9 +26435,9 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024">
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>12</v>
@@ -26432,10 +26446,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="31">
         <v>0</v>
@@ -27459,9 +27473,9 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024">
+    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>12</v>
@@ -27470,10 +27484,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="31">
         <v>1</v>
@@ -28497,9 +28511,9 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024">
+    <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>12</v>
@@ -28508,16 +28522,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="25">
         <v>35</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -29537,7 +29551,7 @@
       <c r="AMI33"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -30563,9 +30577,9 @@
       <c r="AMI34"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024">
+    <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>12</v>
@@ -30574,10 +30588,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="25">
         <v>17533</v>
@@ -31601,9 +31615,9 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024">
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>12</v>
@@ -31612,10 +31626,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="25">
         <v>101</v>
@@ -32639,9 +32653,9 @@
       <c r="AMI36"/>
       <c r="AMJ36"/>
     </row>
-    <row r="37" spans="1:1024">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>12</v>
@@ -32650,10 +32664,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="25">
         <v>2229</v>
@@ -33677,9 +33691,9 @@
       <c r="AMI37"/>
       <c r="AMJ37"/>
     </row>
-    <row r="38" spans="1:1024">
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>12</v>
@@ -33688,16 +33702,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="25">
         <v>38502</v>
       </c>
       <c r="G38"/>
-      <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -34715,9 +34728,9 @@
       <c r="AMI38"/>
       <c r="AMJ38"/>
     </row>
-    <row r="39" spans="1:1024">
+    <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>12</v>
@@ -34726,16 +34739,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="31">
         <v>0</v>
       </c>
       <c r="G39"/>
-      <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -35753,9 +35765,9 @@
       <c r="AMI39"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024">
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>12</v>
@@ -35764,16 +35776,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="31">
         <v>1</v>
       </c>
       <c r="G40"/>
-      <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -36791,9 +36802,9 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
     </row>
-    <row r="41" spans="1:1024">
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>12</v>
@@ -36802,18 +36813,17 @@
         <v>1</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="25">
         <v>35</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41"/>
+        <v>29</v>
+      </c>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -37831,7 +37841,7 @@
       <c r="AMI41"/>
       <c r="AMJ41"/>
     </row>
-    <row r="42" spans="1:1024">
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -37839,7 +37849,6 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -38857,9 +38866,9 @@
       <c r="AMI42"/>
       <c r="AMJ42"/>
     </row>
-    <row r="43" spans="1:1024">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>12</v>
@@ -38868,16 +38877,15 @@
         <v>1</v>
       </c>
       <c r="D43" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="F43" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>54</v>
-      </c>
       <c r="G43"/>
-      <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -39895,9 +39903,9 @@
       <c r="AMI43"/>
       <c r="AMJ43"/>
     </row>
-    <row r="44" spans="1:1024">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>12</v>
@@ -39906,16 +39914,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="G44"/>
-      <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -40933,9 +40940,9 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1024">
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>12</v>
@@ -40944,16 +40951,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="25">
         <v>20.9</v>
       </c>
       <c r="G45"/>
-      <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -41971,9 +41977,9 @@
       <c r="AMI45"/>
       <c r="AMJ45"/>
     </row>
-    <row r="46" spans="1:1024">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>12</v>
@@ -41982,16 +41988,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>59</v>
-      </c>
       <c r="G46"/>
-      <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -43009,9 +43014,9 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1024">
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>12</v>
@@ -43020,16 +43025,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="G47"/>
-      <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -44047,9 +44051,9 @@
       <c r="AMI47"/>
       <c r="AMJ47"/>
     </row>
-    <row r="48" spans="1:1024">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>12</v>
@@ -44058,16 +44062,15 @@
         <v>1</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="G48"/>
-      <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -45085,9 +45088,9 @@
       <c r="AMI48"/>
       <c r="AMJ48"/>
     </row>
-    <row r="49" spans="1:1024">
+    <row r="49" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>12</v>
@@ -45096,16 +45099,15 @@
         <v>1</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>65</v>
-      </c>
       <c r="G49"/>
-      <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -46123,9 +46125,9 @@
       <c r="AMI49"/>
       <c r="AMJ49"/>
     </row>
-    <row r="50" spans="1:1024" s="32" customFormat="1">
+    <row r="50" spans="1:1024" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>12</v>
@@ -46134,16 +46136,16 @@
         <v>1</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="32" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="51" spans="1:1024">
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -46152,9 +46154,9 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:1024">
+    <row r="52" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>12</v>
@@ -46163,19 +46165,19 @@
         <v>1</v>
       </c>
       <c r="D52" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:1024">
+    <row r="53" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>12</v>
@@ -46184,19 +46186,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:1024">
+    <row r="54" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>12</v>
@@ -46205,19 +46207,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" s="25">
         <v>18.100000000000001</v>
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:1024">
+    <row r="55" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>12</v>
@@ -46226,19 +46228,19 @@
         <v>1</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:1024">
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>12</v>
@@ -46247,19 +46249,19 @@
         <v>1</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:1024">
+    <row r="57" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>12</v>
@@ -46268,19 +46270,19 @@
         <v>1</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:1024">
+    <row r="58" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>12</v>
@@ -46289,19 +46291,19 @@
         <v>1</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:1024">
+    <row r="59" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>12</v>
@@ -46310,17 +46312,17 @@
         <v>1</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:1024">
+    <row r="60" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -46329,9 +46331,9 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:1024">
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>12</v>
@@ -46343,16 +46345,16 @@
         <v>1106</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="25">
         <v>51</v>
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:1024">
+    <row r="62" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>12</v>
@@ -46364,16 +46366,16 @@
         <v>1106</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" s="25">
         <v>1.6959999999999999E-6</v>
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:1024">
+    <row r="63" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>12</v>
@@ -46385,16 +46387,16 @@
         <v>1106</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" s="25">
         <v>56</v>
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:1024">
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>12</v>
@@ -46406,16 +46408,16 @@
         <v>1106</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F64" s="25">
         <v>1.21E-2</v>
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>12</v>
@@ -46427,16 +46429,16 @@
         <v>1106</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F65" s="25">
         <v>49</v>
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>12</v>
@@ -46448,16 +46450,16 @@
         <v>1106</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F66" s="25">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>12</v>
@@ -46469,18 +46471,18 @@
         <v>1106</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2">
         <v>124</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>12</v>
@@ -46492,18 +46494,18 @@
         <v>1106</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" s="25">
         <v>700</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>12</v>
@@ -46515,18 +46517,18 @@
         <v>1106</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2">
         <v>1.0760000000000001</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>12</v>
@@ -46538,16 +46540,16 @@
         <v>1106</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" s="25">
         <v>3.9E-2</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -46556,9 +46558,9 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>12</v>
@@ -46567,19 +46569,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F72" s="25">
         <v>40.362341666666701</v>
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>12</v>
@@ -46588,19 +46590,19 @@
         <v>1</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="25">
         <v>-70.878614999999996</v>
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>12</v>
@@ -46609,19 +46611,19 @@
         <v>1</v>
       </c>
       <c r="D74" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="F74" s="25">
         <v>1.275736E-3</v>
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" s="25" t="s">
         <v>12</v>
@@ -46630,19 +46632,19 @@
         <v>1</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="25">
         <v>2.687395E-4</v>
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>12</v>
@@ -46651,19 +46653,19 @@
         <v>1</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="25">
         <v>-4.9407139999999997E-7</v>
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>12</v>
@@ -46672,19 +46674,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" s="25">
         <v>1.5714250000000001E-7</v>
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>12</v>
@@ -46693,19 +46695,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="25">
         <v>-59.860720000000001</v>
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>12</v>
@@ -46714,19 +46716,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" s="25">
         <v>54.689369999999997</v>
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>12</v>
@@ -46735,19 +46737,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F80" s="25">
         <v>-0.59772709999999996</v>
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>12</v>
@@ -46756,19 +46758,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" s="25">
         <v>524321.69999999995</v>
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>12</v>
@@ -46777,19 +46779,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F82" s="25">
         <v>4.3960220000000003</v>
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>12</v>
@@ -46798,19 +46800,19 @@
         <v>1</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F83" s="25">
         <v>-0.18980369999999999</v>
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>12</v>
@@ -46819,19 +46821,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F84" s="25">
         <v>25.0275</v>
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>12</v>
@@ -46840,19 +46842,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F85" s="25">
         <v>-8.9999999999999998E-4</v>
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="25" t="s">
         <v>12</v>
@@ -46861,19 +46863,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F86" s="25">
         <v>0</v>
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="25" t="s">
         <v>12</v>
@@ -46882,19 +46884,19 @@
         <v>1</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F87" s="25">
         <v>4.7931029999999999E-3</v>
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="25" t="s">
         <v>12</v>
@@ -46903,19 +46905,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F88" s="25">
         <v>4.880347E-4</v>
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>12</v>
@@ -46924,19 +46926,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F89" s="25">
         <v>-5.7918670000000003E-12</v>
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="25" t="s">
         <v>12</v>
@@ -46945,19 +46947,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F90" s="25">
         <v>-0.9775528</v>
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>12</v>
@@ -46966,19 +46968,19 @@
         <v>1</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" s="25">
         <v>0.13665949999999999</v>
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" s="25" t="s">
         <v>12</v>
@@ -46987,19 +46989,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F92" s="25">
         <v>-2.227513E-4</v>
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>12</v>
@@ -47008,19 +47010,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F93" s="25">
         <v>3.482608E-5</v>
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="25" t="s">
         <v>12</v>
@@ -47029,19 +47031,19 @@
         <v>1</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F94" s="25">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" s="25" t="s">
         <v>12</v>
@@ -47050,17 +47052,17 @@
         <v>1</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F95" s="25">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -47069,9 +47071,9 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" s="25" t="s">
         <v>12</v>
@@ -47080,19 +47082,19 @@
         <v>1</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F97" s="25">
         <v>40.362341666666701</v>
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="25" t="s">
         <v>12</v>
@@ -47101,19 +47103,19 @@
         <v>1</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F98" s="25">
         <v>-70.878614999999996</v>
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99" s="25" t="s">
         <v>12</v>
@@ -47122,19 +47124,19 @@
         <v>1</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F99" s="25">
         <v>1.2462179999999999E-3</v>
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>12</v>
@@ -47143,19 +47145,19 @@
         <v>1</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F100" s="25">
         <v>2.7678380000000001E-4</v>
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" s="25" t="s">
         <v>12</v>
@@ -47164,19 +47166,19 @@
         <v>1</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="25">
         <v>-1.2985689999999999E-6</v>
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="25" t="s">
         <v>12</v>
@@ -47185,19 +47187,19 @@
         <v>1</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F102" s="25">
         <v>1.8894860000000001E-7</v>
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" s="25" t="s">
         <v>12</v>
@@ -47206,19 +47208,19 @@
         <v>1</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F103" s="25">
         <v>-60.5807</v>
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104" s="25" t="s">
         <v>12</v>
@@ -47227,19 +47229,19 @@
         <v>1</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F104" s="25">
         <v>52.932580000000002</v>
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="25" t="s">
         <v>12</v>
@@ -47248,19 +47250,19 @@
         <v>1</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F105" s="25">
         <v>-0.33026139999999998</v>
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="25" t="s">
         <v>12</v>
@@ -47269,19 +47271,19 @@
         <v>1</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F106" s="25">
         <v>524771.30000000005</v>
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="25" t="s">
         <v>12</v>
@@ -47290,19 +47292,19 @@
         <v>1</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F107" s="25">
         <v>7.7022430000000002</v>
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" s="25" t="s">
         <v>12</v>
@@ -47311,19 +47313,19 @@
         <v>1</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F108" s="25">
         <v>-0.1943513</v>
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="25" t="s">
         <v>12</v>
@@ -47332,19 +47334,19 @@
         <v>1</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F109" s="25">
         <v>25.106000000000002</v>
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="25" t="s">
         <v>12</v>
@@ -47353,19 +47355,19 @@
         <v>1</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F110" s="25">
         <v>-9.9999989999999999E-4</v>
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="25" t="s">
         <v>12</v>
@@ -47374,19 +47376,19 @@
         <v>1</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F111" s="25">
         <v>0</v>
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="25" t="s">
         <v>12</v>
@@ -47395,19 +47397,19 @@
         <v>1</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F112" s="25">
         <v>0.12014469999999999</v>
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="25" t="s">
         <v>12</v>
@@ -47416,19 +47418,20 @@
         <v>1</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F113" s="25">
         <v>1.5407649999999999E-3</v>
       </c>
       <c r="G113"/>
+      <c r="H113"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="25" t="s">
         <v>12</v>
@@ -47437,19 +47440,20 @@
         <v>1</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F114" s="25">
         <v>5.3610539999999999E-12</v>
       </c>
       <c r="G114"/>
+      <c r="H114"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="25" t="s">
         <v>12</v>
@@ -47458,19 +47462,20 @@
         <v>1</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F115" s="25">
         <v>-0.95357239999999999</v>
       </c>
       <c r="G115"/>
+      <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" s="25" t="s">
         <v>12</v>
@@ -47479,19 +47484,19 @@
         <v>1</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F116" s="25">
         <v>0.13362479999999999</v>
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" s="25" t="s">
         <v>12</v>
@@ -47500,19 +47505,20 @@
         <v>1</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F117" s="25">
         <v>-3.7835450000000002E-4</v>
       </c>
       <c r="G117"/>
+      <c r="H117"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118" s="25" t="s">
         <v>12</v>
@@ -47521,19 +47527,20 @@
         <v>1</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F118" s="25">
         <v>4.5128569999999998E-5</v>
       </c>
       <c r="G118"/>
+      <c r="H118"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B119" s="25" t="s">
         <v>12</v>
@@ -47542,19 +47549,19 @@
         <v>1</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F119" s="25">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B120" s="25" t="s">
         <v>12</v>
@@ -47563,17 +47570,17 @@
         <v>1</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F120" s="25">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -47582,9 +47589,9 @@
       <c r="F121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122" s="25" t="s">
         <v>12</v>
@@ -47596,16 +47603,16 @@
         <v>389</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F122" s="25">
         <v>40.362341666666701</v>
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B123" s="25" t="s">
         <v>12</v>
@@ -47617,16 +47624,16 @@
         <v>389</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F123" s="25">
         <v>-70.878614999999996</v>
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B124" s="25" t="s">
         <v>12</v>
@@ -47638,14 +47645,14 @@
         <v>389</v>
       </c>
       <c r="E124" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F124" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>116</v>
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -47654,9 +47661,9 @@
       <c r="F125"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>12</v>
@@ -47668,16 +47675,16 @@
         <v>390</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F126" s="25">
         <v>40.362341666666701</v>
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" s="25" t="s">
         <v>12</v>
@@ -47689,16 +47696,16 @@
         <v>390</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127" s="25">
         <v>-70.878614999999996</v>
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="25" t="s">
         <v>12</v>
@@ -47710,14 +47717,14 @@
         <v>390</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -47726,9 +47733,9 @@
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B130" s="25" t="s">
         <v>12</v>
@@ -47740,18 +47747,18 @@
         <v>268</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F130" s="25">
         <v>217</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>12</v>
@@ -47763,18 +47770,18 @@
         <v>268</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F131" s="25">
         <v>240</v>
       </c>
       <c r="G131" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B132" s="25" t="s">
         <v>12</v>
@@ -47786,16 +47793,16 @@
         <v>268</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F132" s="25">
         <v>20.059999999999999</v>
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B133" s="25" t="s">
         <v>12</v>
@@ -47807,16 +47814,16 @@
         <v>268</v>
       </c>
       <c r="E133" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F133" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B134" s="25" t="s">
         <v>12</v>
@@ -47828,16 +47835,16 @@
         <v>268</v>
       </c>
       <c r="E134" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F134" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>12</v>
@@ -47849,16 +47856,16 @@
         <v>268</v>
       </c>
       <c r="E135" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F135" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="F135" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B136" s="25" t="s">
         <v>12</v>
@@ -47870,14 +47877,14 @@
         <v>268</v>
       </c>
       <c r="E136" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" s="33" t="s">
         <v>128</v>
-      </c>
-      <c r="F136" s="33" t="s">
-        <v>129</v>
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -47886,9 +47893,9 @@
       <c r="F137"/>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B138" s="25" t="s">
         <v>12</v>
@@ -47897,19 +47904,19 @@
         <v>1</v>
       </c>
       <c r="D138" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E138" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E138" s="25" t="s">
+      <c r="F138" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>132</v>
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B139" s="25" t="s">
         <v>12</v>
@@ -47918,19 +47925,19 @@
         <v>1</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E139" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F139" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="F139" s="25" t="s">
-        <v>134</v>
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>12</v>
@@ -47939,17 +47946,17 @@
         <v>1</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E140" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F140" s="25" t="s">
         <v>135</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>136</v>
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -47958,9 +47965,9 @@
       <c r="F141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>12</v>
@@ -47972,16 +47979,16 @@
         <v>19221</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F142" s="25">
         <v>94000</v>
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B143" s="25" t="s">
         <v>12</v>
@@ -47993,16 +48000,17 @@
         <v>19221</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F143" s="25">
         <v>40.362341666666701</v>
       </c>
       <c r="G143"/>
+      <c r="H143"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>12</v>
@@ -48014,16 +48022,17 @@
         <v>19221</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F144" s="25">
         <v>-70.878614999999996</v>
       </c>
       <c r="G144"/>
+      <c r="H144"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145" s="25" t="s">
         <v>12</v>
@@ -48035,16 +48044,17 @@
         <v>19221</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F145" s="25">
         <v>0.45</v>
       </c>
       <c r="G145"/>
+      <c r="H145"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" s="25" t="s">
         <v>12</v>
@@ -48056,16 +48066,17 @@
         <v>19221</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F146" s="25">
         <v>0.45</v>
       </c>
       <c r="G146"/>
+      <c r="H146"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B147" s="25" t="s">
         <v>12</v>
@@ -48077,16 +48088,17 @@
         <v>19221</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F147" s="25">
         <v>0.45</v>
       </c>
       <c r="G147"/>
+      <c r="H147"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B148" s="25" t="s">
         <v>12</v>
@@ -48098,14 +48110,15 @@
         <v>19221</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F148" s="25">
         <v>0.45</v>
       </c>
       <c r="G148"/>
+      <c r="H148"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -48114,9 +48127,9 @@
       <c r="F149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>12</v>
@@ -48125,19 +48138,19 @@
         <v>1</v>
       </c>
       <c r="D150" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>145</v>
       </c>
       <c r="F150" s="25">
         <v>2094.3690000000001</v>
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151" s="25" t="s">
         <v>12</v>
@@ -48146,19 +48159,19 @@
         <v>1</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F151" s="25">
         <v>15.749129999999999</v>
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>12</v>
@@ -48167,19 +48180,19 @@
         <v>1</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F152" s="25">
         <v>-3649.47</v>
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B153" s="25" t="s">
         <v>12</v>
@@ -48188,19 +48201,19 @@
         <v>1</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F153" s="25">
         <v>2.1985999999999999E-2</v>
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>12</v>
@@ -48209,19 +48222,19 @@
         <v>1</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F154" s="25">
         <v>0</v>
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B155" s="25" t="s">
         <v>12</v>
@@ -48230,21 +48243,21 @@
         <v>1</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F155" s="25">
         <v>0</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>12</v>
@@ -48253,19 +48266,19 @@
         <v>1</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F156" s="25">
         <v>-0.2014</v>
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B157" s="25" t="s">
         <v>12</v>
@@ -48274,21 +48287,21 @@
         <v>1</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F157" s="25">
         <v>1</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B158" s="25" t="s">
         <v>12</v>
@@ -48297,19 +48310,19 @@
         <v>1</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F158" s="25">
         <v>27.677230000000002</v>
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B159" s="25" t="s">
         <v>12</v>
@@ -48318,19 +48331,19 @@
         <v>1</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F159" s="25">
         <v>0.390712</v>
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>12</v>
@@ -48339,19 +48352,19 @@
         <v>1</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F160" s="25">
         <v>18.058910000000001</v>
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B161" s="25" t="s">
         <v>12</v>
@@ -48360,19 +48373,19 @@
         <v>1</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F161" s="25">
         <v>26.153639999999999</v>
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B162" s="25" t="s">
         <v>12</v>
@@ -48381,19 +48394,19 @@
         <v>1</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F162" s="25">
         <v>5.8282090000000002</v>
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B163" s="25" t="s">
         <v>12</v>
@@ -48402,19 +48415,19 @@
         <v>1</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F163" s="25">
         <v>-3920.2510000000002</v>
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="25" t="s">
         <v>12</v>
@@ -48423,19 +48436,19 @@
         <v>1</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F164" s="25">
         <v>-10474.77</v>
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B165" s="25" t="s">
         <v>12</v>
@@ -48444,19 +48457,19 @@
         <v>1</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F165" s="25">
         <v>0</v>
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B166" s="25" t="s">
         <v>12</v>
@@ -48465,19 +48478,19 @@
         <v>1</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F166" s="25">
         <v>2796.2</v>
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B167" s="25" t="s">
         <v>12</v>
@@ -48486,17 +48499,17 @@
         <v>1</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F167" s="25">
         <v>41943</v>
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -48505,9 +48518,9 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B169" s="25" t="s">
         <v>12</v>
@@ -48516,19 +48529,19 @@
         <v>1</v>
       </c>
       <c r="D169" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="F169" s="25">
         <v>-0.02</v>
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B170" s="25" t="s">
         <v>12</v>
@@ -48537,19 +48550,19 @@
         <v>1</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F170" s="25">
         <v>0.89419999999999999</v>
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B171" s="25" t="s">
         <v>12</v>
@@ -48558,19 +48571,19 @@
         <v>1</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F171" s="25">
         <v>-1.8018000000000001</v>
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B172" s="25" t="s">
         <v>12</v>
@@ -48579,19 +48592,19 @@
         <v>1</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F172" s="25">
         <v>15.25</v>
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B173" s="25" t="s">
         <v>12</v>
@@ -48600,19 +48613,19 @@
         <v>1</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F173" s="25">
         <v>19706</v>
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B174" s="25" t="s">
         <v>12</v>
@@ -48621,19 +48634,19 @@
         <v>1</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F174" s="25">
         <v>34</v>
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B175" s="25" t="s">
         <v>12</v>
@@ -48642,19 +48655,19 @@
         <v>1</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F175" s="25">
         <v>3073</v>
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B176" s="25" t="s">
         <v>12</v>
@@ -48663,26 +48676,26 @@
         <v>1</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F176" s="25">
         <v>44327</v>
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B178" s="25" t="s">
         <v>12</v>
@@ -48691,22 +48704,22 @@
         <v>1</v>
       </c>
       <c r="D178" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G178" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G178" s="25" t="s">
-        <v>172</v>
-      </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B180" s="25" t="s">
         <v>12</v>
@@ -48715,15 +48728,15 @@
         <v>1</v>
       </c>
       <c r="D180" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G180" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="G180" s="34" t="s">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="25" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="B181" s="25" t="s">
         <v>12</v>
@@ -48732,15 +48745,15 @@
         <v>1</v>
       </c>
       <c r="D181" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G181" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="G181" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="B182" s="25" t="s">
         <v>12</v>
@@ -48749,22 +48762,22 @@
         <v>1</v>
       </c>
       <c r="D182" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G182" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183" s="29"/>
       <c r="G183" s="28"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B184" s="25" t="s">
         <v>12</v>
@@ -48773,15 +48786,15 @@
         <v>1</v>
       </c>
       <c r="D184" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G184" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="G184" s="34" t="s">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="25" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="B185" s="25" t="s">
         <v>12</v>
@@ -48790,15 +48803,15 @@
         <v>1</v>
       </c>
       <c r="D185" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G185" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="G185" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>12</v>
@@ -48807,15 +48820,15 @@
         <v>1</v>
       </c>
       <c r="D186" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G186" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="G186" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="B187" s="25" t="s">
         <v>12</v>
@@ -48824,15 +48837,15 @@
         <v>1</v>
       </c>
       <c r="D187" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G187" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="G187" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="B188" s="25" t="s">
         <v>12</v>
@@ -48841,15 +48854,15 @@
         <v>1</v>
       </c>
       <c r="D188" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G188" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="G188" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="B189" s="25" t="s">
         <v>12</v>
@@ -48858,10 +48871,10 @@
         <v>1</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -48881,9 +48894,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.12295300000000001</v>
       </c>
@@ -48999,7 +49012,7 @@
         <v>5.2187999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.109476</v>
       </c>
@@ -49115,7 +49128,7 @@
         <v>4.4817999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-9.6312999999999996E-2</v>
       </c>
@@ -49231,7 +49244,7 @@
         <v>3.6823000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-8.2314999999999999E-2</v>
       </c>
@@ -49347,7 +49360,7 @@
         <v>3.0873000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-6.9955000000000003E-2</v>
       </c>
@@ -49463,7 +49476,7 @@
         <v>2.5044E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-5.9865000000000002E-2</v>
       </c>
@@ -49579,7 +49592,7 @@
         <v>2.0485E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.1500999999999998E-2</v>
       </c>
@@ -49695,7 +49708,7 @@
         <v>1.721E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.4443999999999997E-2</v>
       </c>
@@ -49811,7 +49824,7 @@
         <v>1.4402E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-3.8405000000000002E-2</v>
       </c>
@@ -49927,7 +49940,7 @@
         <v>1.2527E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-3.4391999999999999E-2</v>
       </c>
@@ -50043,7 +50056,7 @@
         <v>1.0567E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3.0145000000000002E-2</v>
       </c>
@@ -50159,7 +50172,7 @@
         <v>8.8679999999999991E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.5998E-2</v>
       </c>
@@ -50275,7 +50288,7 @@
         <v>7.7060000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.2898000000000002E-2</v>
       </c>
@@ -50391,7 +50404,7 @@
         <v>6.679E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.0032000000000001E-2</v>
       </c>
@@ -50507,7 +50520,7 @@
         <v>5.6899999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.7579000000000001E-2</v>
       </c>
@@ -50623,7 +50636,7 @@
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.5637999999999999E-2</v>
       </c>
@@ -50739,7 +50752,7 @@
         <v>4.444E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.3892E-2</v>
       </c>
@@ -50855,7 +50868,7 @@
         <v>4.0090000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.1993999999999999E-2</v>
       </c>
@@ -50971,7 +50984,7 @@
         <v>3.4589999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.0363000000000001E-2</v>
       </c>
@@ -51087,7 +51100,7 @@
         <v>3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-9.1570000000000002E-3</v>
       </c>
@@ -51203,7 +51216,7 @@
         <v>2.647E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-8.1689999999999992E-3</v>
       </c>
@@ -51319,7 +51332,7 @@
         <v>2.4429999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-6.6540000000000002E-3</v>
       </c>
@@ -51435,7 +51448,7 @@
         <v>2.14E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-5.8110000000000002E-3</v>
       </c>
@@ -51551,7 +51564,7 @@
         <v>1.9189999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.9950000000000003E-3</v>
       </c>
@@ -51667,7 +51680,7 @@
         <v>1.7149999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.1580000000000002E-3</v>
       </c>
@@ -51783,7 +51796,7 @@
         <v>1.382E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.4190000000000002E-3</v>
       </c>
@@ -51899,7 +51912,7 @@
         <v>1.2930000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.6570000000000001E-3</v>
       </c>
@@ -52015,7 +52028,7 @@
         <v>1.127E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.5019999999999999E-3</v>
       </c>
@@ -52131,7 +52144,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.9650000000000002E-3</v>
       </c>
@@ -52247,7 +52260,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.604E-3</v>
       </c>
@@ -52363,7 +52376,7 @@
         <v>8.3299999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.2689999999999999E-3</v>
       </c>
@@ -52479,7 +52492,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-6.5399999999999996E-4</v>
       </c>
@@ -52595,7 +52608,7 @@
         <v>7.4399999999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-6.7000000000000002E-4</v>
       </c>
@@ -52711,7 +52724,7 @@
         <v>6.7900000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.54E-4</v>
       </c>
@@ -52827,7 +52840,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.4499999999999998E-4</v>
       </c>
@@ -52943,7 +52956,7 @@
         <v>6.5099999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.5399999999999998E-4</v>
       </c>
@@ -53059,7 +53072,7 @@
         <v>6.7000000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.6200000000000001E-4</v>
       </c>
@@ -53175,7 +53188,7 @@
         <v>6.78E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.7100000000000001E-4</v>
       </c>
@@ -53291,7 +53304,7 @@
         <v>6.4499999999999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.76E-4</v>
       </c>
@@ -53407,7 +53420,7 @@
         <v>6.1200000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.1499999999999999E-4</v>
       </c>
@@ -53523,7 +53536,7 @@
         <v>5.1900000000000004E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -53639,7 +53652,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.1300000000000002E-4</v>
       </c>
@@ -53755,7 +53768,7 @@
         <v>3.59E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8.0800000000000002E-4</v>
       </c>
@@ -53871,7 +53884,7 @@
         <v>2.61E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.696E-3</v>
       </c>
@@ -53987,7 +54000,7 @@
         <v>-1.573E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.4809999999999999E-3</v>
       </c>
@@ -54103,7 +54116,7 @@
         <v>-1.4599999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.547E-3</v>
       </c>
@@ -54219,7 +54232,7 @@
         <v>-1.405E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.534E-3</v>
       </c>
@@ -54335,7 +54348,7 @@
         <v>-1.279E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.5150000000000001E-3</v>
       </c>
@@ -54451,7 +54464,7 @@
         <v>-1.204E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.6800000000000001E-3</v>
       </c>
@@ -54567,7 +54580,7 @@
         <v>-1.132E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.6050000000000001E-3</v>
       </c>
@@ -54683,7 +54696,7 @@
         <v>-1.005E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.6019999999999999E-3</v>
       </c>
@@ -54799,7 +54812,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.665E-3</v>
       </c>
@@ -54915,7 +54928,7 @@
         <v>-8.7100000000000003E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.668E-3</v>
       </c>
@@ -55031,7 +55044,7 @@
         <v>-7.8399999999999997E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.663E-3</v>
       </c>
@@ -55147,7 +55160,7 @@
         <v>-7.2099999999999996E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.6720000000000001E-3</v>
       </c>
@@ -55263,7 +55276,7 @@
         <v>-6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.6850000000000001E-3</v>
       </c>
@@ -55379,7 +55392,7 @@
         <v>-6.5899999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.7819999999999999E-3</v>
       </c>
@@ -55495,7 +55508,7 @@
         <v>-5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.758E-3</v>
       </c>
@@ -55611,7 +55624,7 @@
         <v>-4.9100000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.622E-3</v>
       </c>
@@ -55727,7 +55740,7 @@
         <v>-4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.457E-3</v>
       </c>
@@ -55843,7 +55856,7 @@
         <v>-3.7399999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.333E-3</v>
       </c>
@@ -55959,7 +55972,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.354E-3</v>
       </c>
@@ -56075,7 +56088,7 @@
         <v>-3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.42E-3</v>
       </c>
@@ -56191,7 +56204,7 @@
         <v>-2.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.2620000000000001E-3</v>
       </c>
@@ -56307,7 +56320,7 @@
         <v>-1.44E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.1479999999999999E-3</v>
       </c>
@@ -56423,7 +56436,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.191E-3</v>
       </c>
@@ -56539,7 +56552,7 @@
         <v>-4.1E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.2440000000000001E-3</v>
       </c>
@@ -56655,7 +56668,7 @@
         <v>-5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.0859999999999999E-3</v>
       </c>
@@ -56771,7 +56784,7 @@
         <v>-5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -56887,7 +56900,7 @@
         <v>-6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9.0200000000000002E-4</v>
       </c>
@@ -57003,7 +57016,7 @@
         <v>-1.94E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.1460000000000001E-3</v>
       </c>
@@ -57119,7 +57132,7 @@
         <v>-2.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.474E-3</v>
       </c>
@@ -57235,7 +57248,7 @@
         <v>-3.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.794E-3</v>
       </c>
@@ -57351,7 +57364,7 @@
         <v>-5.7799999999999995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.9300000000000001E-3</v>
       </c>
@@ -57467,7 +57480,7 @@
         <v>-7.0899999999999999E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.032E-3</v>
       </c>
@@ -57583,7 +57596,7 @@
         <v>-8.43E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.7619999999999999E-3</v>
       </c>
@@ -57699,7 +57712,7 @@
         <v>-8.8199999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -57815,7 +57828,7 @@
         <v>-9.6599999999999995E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.6299999999999999E-3</v>
       </c>
@@ -57931,7 +57944,7 @@
         <v>-1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.4989999999999999E-3</v>
       </c>
@@ -58064,9 +58077,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6.502E-3</v>
       </c>
@@ -58182,7 +58195,7 @@
         <v>-2.9305999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.5399999999999998E-3</v>
       </c>
@@ -58298,7 +58311,7 @@
         <v>-2.8257000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.371E-3</v>
       </c>
@@ -58414,7 +58427,7 @@
         <v>-2.5447999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.3499999999999997E-3</v>
       </c>
@@ -58530,7 +58543,7 @@
         <v>-2.5898000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9789999999999999E-3</v>
       </c>
@@ -58646,7 +58659,7 @@
         <v>-2.5122999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.0700000000000008E-3</v>
       </c>
@@ -58762,7 +58775,7 @@
         <v>-2.4976999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.9559999999999995E-3</v>
       </c>
@@ -58878,7 +58891,7 @@
         <v>-2.4431999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0073E-2</v>
       </c>
@@ -58994,7 +59007,7 @@
         <v>-2.5092E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.2914999999999999E-2</v>
       </c>
@@ -59110,7 +59123,7 @@
         <v>-2.4013E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.3252E-2</v>
       </c>
@@ -59226,7 +59239,7 @@
         <v>-2.4847999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.5432E-2</v>
       </c>
@@ -59342,7 +59355,7 @@
         <v>-2.4327999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.5630999999999999E-2</v>
       </c>
@@ -59458,7 +59471,7 @@
         <v>-2.4232E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.6574999999999999E-2</v>
       </c>
@@ -59574,7 +59587,7 @@
         <v>-2.4160000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7505E-2</v>
       </c>
@@ -59690,7 +59703,7 @@
         <v>-2.3446999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.8298999999999999E-2</v>
       </c>
@@ -59806,7 +59819,7 @@
         <v>-2.3361E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.8811000000000001E-2</v>
       </c>
@@ -59922,7 +59935,7 @@
         <v>-2.3258999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9082999999999999E-2</v>
       </c>
@@ -60038,7 +60051,7 @@
         <v>-2.2512999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.9411000000000001E-2</v>
       </c>
@@ -60154,7 +60167,7 @@
         <v>-2.2519999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.9425999999999999E-2</v>
       </c>
@@ -60270,7 +60283,7 @@
         <v>-2.2197000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.8971999999999999E-2</v>
       </c>
@@ -60386,7 +60399,7 @@
         <v>-2.1777999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.8988999999999999E-2</v>
       </c>
@@ -60502,7 +60515,7 @@
         <v>-2.1957999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.9675999999999999E-2</v>
       </c>
@@ -60618,7 +60631,7 @@
         <v>-2.1429E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.9005000000000001E-2</v>
       </c>
@@ -60734,7 +60747,7 @@
         <v>-2.1170000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.9892E-2</v>
       </c>
@@ -60850,7 +60863,7 @@
         <v>-2.1034000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.968E-2</v>
       </c>
@@ -60966,7 +60979,7 @@
         <v>-2.0567999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.9866000000000002E-2</v>
       </c>
@@ -61082,7 +61095,7 @@
         <v>-2.0317999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.0230000000000001E-2</v>
       </c>
@@ -61198,7 +61211,7 @@
         <v>-1.9931000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.0452000000000001E-2</v>
       </c>
@@ -61314,7 +61327,7 @@
         <v>-1.9397999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.1274000000000001E-2</v>
       </c>
@@ -61430,7 +61443,7 @@
         <v>-1.9109000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.1624999999999998E-2</v>
       </c>
@@ -61546,7 +61559,7 @@
         <v>-1.8602E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.1729999999999999E-2</v>
       </c>
@@ -61662,7 +61675,7 @@
         <v>-1.8255E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.2558000000000002E-2</v>
       </c>
@@ -61778,7 +61791,7 @@
         <v>-1.797E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.2578999999999998E-2</v>
       </c>
@@ -61894,7 +61907,7 @@
         <v>-1.7409000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.2261E-2</v>
       </c>
@@ -62010,7 +62023,7 @@
         <v>-1.7328E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.2717999999999999E-2</v>
       </c>
@@ -62126,7 +62139,7 @@
         <v>-1.6914999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.2329000000000002E-2</v>
       </c>
@@ -62242,7 +62255,7 @@
         <v>-1.6785000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.1847999999999999E-2</v>
       </c>
@@ -62358,7 +62371,7 @@
         <v>-1.6666E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.1981000000000001E-2</v>
       </c>
@@ -62474,7 +62487,7 @@
         <v>-1.6521999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.1208000000000001E-2</v>
       </c>
@@ -62590,7 +62603,7 @@
         <v>-1.6521999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.1294E-2</v>
       </c>
@@ -62706,7 +62719,7 @@
         <v>-1.6392E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.0708000000000001E-2</v>
       </c>
@@ -62822,7 +62835,7 @@
         <v>-1.6354E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.9826E-2</v>
       </c>
@@ -62938,7 +62951,7 @@
         <v>-1.6288E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.9868E-2</v>
       </c>
@@ -63054,7 +63067,7 @@
         <v>-1.6088000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.0799999999999999E-2</v>
       </c>
@@ -63170,7 +63183,7 @@
         <v>-1.6532999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.0517000000000001E-2</v>
       </c>
@@ -63286,7 +63299,7 @@
         <v>-1.6351000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.9968E-2</v>
       </c>
@@ -63402,7 +63415,7 @@
         <v>-1.6223000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.9796000000000001E-2</v>
       </c>
@@ -63518,7 +63531,7 @@
         <v>-1.5918000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.9779999999999999E-2</v>
       </c>
@@ -63634,7 +63647,7 @@
         <v>-1.5764E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.9553999999999998E-2</v>
       </c>
@@ -63750,7 +63763,7 @@
         <v>-1.5539000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.9227000000000001E-2</v>
       </c>
@@ -63866,7 +63879,7 @@
         <v>-1.5192000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.9098E-2</v>
       </c>
@@ -63982,7 +63995,7 @@
         <v>-1.4964999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.9073E-2</v>
       </c>
@@ -64098,7 +64111,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.9203999999999999E-2</v>
       </c>
@@ -64214,7 +64227,7 @@
         <v>-1.4231000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.933E-2</v>
       </c>
@@ -64330,7 +64343,7 @@
         <v>-1.3998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.9584000000000001E-2</v>
       </c>
@@ -64446,7 +64459,7 @@
         <v>-1.3592999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.9663E-2</v>
       </c>
@@ -64562,7 +64575,7 @@
         <v>-1.3239000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.9935000000000001E-2</v>
       </c>
@@ -64678,7 +64691,7 @@
         <v>-1.285E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.9657999999999998E-2</v>
       </c>
@@ -64794,7 +64807,7 @@
         <v>-1.2655E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.0233999999999999E-2</v>
       </c>
@@ -64910,7 +64923,7 @@
         <v>-1.2307999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.0622999999999999E-2</v>
       </c>
@@ -65026,7 +65039,7 @@
         <v>-1.1939999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.0405E-2</v>
       </c>
@@ -65142,7 +65155,7 @@
         <v>-1.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.0618999999999998E-2</v>
       </c>
@@ -65258,7 +65271,7 @@
         <v>-1.1449000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.0497000000000001E-2</v>
       </c>
@@ -65374,7 +65387,7 @@
         <v>-1.1176999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.0379000000000001E-2</v>
       </c>
@@ -65490,7 +65503,7 @@
         <v>-1.1072E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.0708000000000001E-2</v>
       </c>
@@ -65606,7 +65619,7 @@
         <v>-1.0766E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.0153000000000001E-2</v>
       </c>
@@ -65722,7 +65735,7 @@
         <v>-1.0642E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.9996E-2</v>
       </c>
@@ -65838,7 +65851,7 @@
         <v>-1.0557E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.9701E-2</v>
       </c>
@@ -65954,7 +65967,7 @@
         <v>-1.0295E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.9044999999999999E-2</v>
       </c>
@@ -66070,7 +66083,7 @@
         <v>-1.0415000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.9299E-2</v>
       </c>
@@ -66186,7 +66199,7 @@
         <v>-1.0260999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.9092000000000001E-2</v>
       </c>
@@ -66302,7 +66315,7 @@
         <v>-1.0182999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.8817E-2</v>
       </c>
@@ -66418,7 +66431,7 @@
         <v>-1.0163999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.8679999999999999E-2</v>
       </c>
@@ -66534,7 +66547,7 @@
         <v>-9.9260000000000008E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.8279E-2</v>
       </c>
@@ -66650,7 +66663,7 @@
         <v>-9.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.7995000000000001E-2</v>
       </c>
@@ -66766,7 +66779,7 @@
         <v>-1.0043E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.8428E-2</v>
       </c>
@@ -66882,7 +66895,7 @@
         <v>-9.6039999999999997E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.7512E-2</v>
       </c>
@@ -66998,7 +67011,7 @@
         <v>-9.8119999999999995E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.7756000000000001E-2</v>
       </c>
@@ -67114,7 +67127,7 @@
         <v>-9.6749999999999996E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.9252999999999999E-2</v>
       </c>
@@ -67247,9 +67260,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-5.3560000000000003E-2</v>
       </c>
@@ -67362,7 +67375,7 @@
         <v>1.1622E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.2927E-2</v>
       </c>
@@ -67475,7 +67488,7 @@
         <v>4.9179999999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.9131000000000001E-2</v>
       </c>
@@ -67588,7 +67601,7 @@
         <v>-1.606E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.6140000000000002E-2</v>
       </c>
@@ -67701,7 +67714,7 @@
         <v>-5.8269999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.2810999999999999E-2</v>
       </c>
@@ -67814,7 +67827,7 @@
         <v>-9.1459999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-6.5880000000000001E-3</v>
       </c>
@@ -67927,7 +67940,7 @@
         <v>-1.0056000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.0949999999999997E-3</v>
       </c>
@@ -68040,7 +68053,7 @@
         <v>-1.0015E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.163E-3</v>
       </c>
@@ -68153,7 +68166,7 @@
         <v>-9.7540000000000005E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.8990000000000001E-3</v>
       </c>
@@ -68266,7 +68279,7 @@
         <v>-9.4629999999999992E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.0599999999999999E-4</v>
       </c>
@@ -68379,7 +68392,7 @@
         <v>-8.6949999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.0499999999999998E-4</v>
       </c>
@@ -68492,7 +68505,7 @@
         <v>-8.4740000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.7599999999999999E-4</v>
       </c>
@@ -68605,7 +68618,7 @@
         <v>-7.561E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.8999999999999997E-4</v>
       </c>
@@ -68718,7 +68731,7 @@
         <v>-7.0439999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -68831,7 +68844,7 @@
         <v>-6.5849999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.5900000000000001E-4</v>
       </c>
@@ -68944,7 +68957,7 @@
         <v>-6.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.3200000000000003E-4</v>
       </c>
@@ -69057,7 +69070,7 @@
         <v>-5.5579999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.9999999999999994E-5</v>
       </c>
@@ -69170,7 +69183,7 @@
         <v>-5.391E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.85E-4</v>
       </c>
@@ -69283,7 +69296,7 @@
         <v>-4.9220000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.4300000000000001E-4</v>
       </c>
@@ -69396,7 +69409,7 @@
         <v>-4.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.5899999999999999E-4</v>
       </c>
@@ -69509,7 +69522,7 @@
         <v>-4.3420000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.4700000000000002E-4</v>
       </c>
@@ -69622,7 +69635,7 @@
         <v>-4.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-7.85E-4</v>
       </c>
@@ -69735,7 +69748,7 @@
         <v>-3.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0449999999999999E-3</v>
       </c>
@@ -69848,7 +69861,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.4189999999999999E-3</v>
       </c>
@@ -69961,7 +69974,7 @@
         <v>-3.3379999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.7819999999999999E-3</v>
       </c>
@@ -70074,7 +70087,7 @@
         <v>-3.1129999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.951E-3</v>
       </c>
@@ -70187,7 +70200,7 @@
         <v>-2.879E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.222E-3</v>
       </c>
@@ -70300,7 +70313,7 @@
         <v>-2.663E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.562E-3</v>
       </c>
@@ -70413,7 +70426,7 @@
         <v>-2.555E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.892E-3</v>
       </c>
@@ -70526,7 +70539,7 @@
         <v>-2.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.1700000000000001E-3</v>
       </c>
@@ -70639,7 +70652,7 @@
         <v>-2.271E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.4619999999999998E-3</v>
       </c>
@@ -70752,7 +70765,7 @@
         <v>-2.1120000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.852E-3</v>
       </c>
@@ -70865,7 +70878,7 @@
         <v>-2.0939999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3.999E-3</v>
       </c>
@@ -70978,7 +70991,7 @@
         <v>-1.9610000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-4.2579999999999996E-3</v>
       </c>
@@ -71091,7 +71104,7 @@
         <v>-1.853E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-4.3559999999999996E-3</v>
       </c>
@@ -71204,7 +71217,7 @@
         <v>-1.8109999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.7590000000000002E-3</v>
       </c>
@@ -71317,7 +71330,7 @@
         <v>-1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-5.1269999999999996E-3</v>
       </c>
@@ -71430,7 +71443,7 @@
         <v>-1.722E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.284E-3</v>
       </c>
@@ -71543,7 +71556,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.1050000000000001E-3</v>
       </c>
@@ -71656,7 +71669,7 @@
         <v>-2.2850000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.036E-3</v>
       </c>
@@ -71769,7 +71782,7 @@
         <v>-2.4030000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -71882,7 +71895,7 @@
         <v>-2.4689999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.86E-4</v>
       </c>
@@ -71995,7 +72008,7 @@
         <v>-2.5149999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8.3900000000000001E-4</v>
       </c>
@@ -72108,7 +72121,7 @@
         <v>-2.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.3090000000000001E-3</v>
       </c>
@@ -72221,7 +72234,7 @@
         <v>-2.7929999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.549E-3</v>
       </c>
@@ -72334,7 +72347,7 @@
         <v>-2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.65E-3</v>
       </c>
@@ -72447,7 +72460,7 @@
         <v>-3.0439999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.7979999999999999E-3</v>
       </c>
@@ -72560,7 +72573,7 @@
         <v>-3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.6249999999999999E-3</v>
       </c>
@@ -72673,7 +72686,7 @@
         <v>-3.1289999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.3569999999999999E-3</v>
       </c>
@@ -72786,7 +72799,7 @@
         <v>-3.107E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.286E-3</v>
       </c>
@@ -72899,7 +72912,7 @@
         <v>-3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -73012,7 +73025,7 @@
         <v>-3.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.0070000000000001E-3</v>
       </c>
@@ -73125,7 +73138,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7.0699999999999995E-4</v>
       </c>
@@ -73238,7 +73251,7 @@
         <v>-2.8730000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7.8200000000000003E-4</v>
       </c>
@@ -73351,7 +73364,7 @@
         <v>-2.7690000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.9300000000000004E-4</v>
       </c>
@@ -73464,7 +73477,7 @@
         <v>-2.7109999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.6200000000000005E-4</v>
       </c>
@@ -73577,7 +73590,7 @@
         <v>-2.598E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7.8200000000000003E-4</v>
       </c>
@@ -73690,7 +73703,7 @@
         <v>-2.529E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8.1400000000000005E-4</v>
       </c>
@@ -73803,7 +73816,7 @@
         <v>-2.4629999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6.0599999999999998E-4</v>
       </c>
@@ -73916,7 +73929,7 @@
         <v>-2.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4.6900000000000002E-4</v>
       </c>
@@ -74029,7 +74042,7 @@
         <v>-2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.0600000000000001E-4</v>
       </c>
@@ -74142,7 +74155,7 @@
         <v>-2.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.2799999999999999E-4</v>
       </c>
@@ -74255,7 +74268,7 @@
         <v>-2.2750000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.95E-4</v>
       </c>
@@ -74368,7 +74381,7 @@
         <v>-2.2209999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-4.6200000000000001E-4</v>
       </c>
@@ -74481,7 +74494,7 @@
         <v>-2.212E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-6.8000000000000005E-4</v>
       </c>
@@ -74594,7 +74607,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.034E-3</v>
       </c>
@@ -74707,7 +74720,7 @@
         <v>-2.134E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.5269999999999999E-3</v>
       </c>
@@ -74820,7 +74833,7 @@
         <v>-2.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.707E-3</v>
       </c>
@@ -74933,7 +74946,7 @@
         <v>-2.0230000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.91E-3</v>
       </c>
@@ -75046,7 +75059,7 @@
         <v>-1.9419999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-2.2269999999999998E-3</v>
       </c>
@@ -75159,7 +75172,7 @@
         <v>-1.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-2.5730000000000002E-3</v>
       </c>
@@ -75272,7 +75285,7 @@
         <v>-1.8879999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-2.7959999999999999E-3</v>
       </c>
@@ -75385,7 +75398,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-2.8730000000000001E-3</v>
       </c>
@@ -75498,7 +75511,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-3.3939999999999999E-3</v>
       </c>
@@ -75611,7 +75624,7 @@
         <v>-1.6980000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-3.5720000000000001E-3</v>
       </c>
@@ -75724,7 +75737,7 @@
         <v>-1.7080000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-3.7230000000000002E-3</v>
       </c>
@@ -75837,7 +75850,7 @@
         <v>-1.7179999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-3.9129999999999998E-3</v>
       </c>
@@ -75950,7 +75963,7 @@
         <v>-1.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-3.5739999999999999E-3</v>
       </c>
@@ -76063,7 +76076,7 @@
         <v>-1.5269999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-3.4689999999999999E-3</v>
       </c>
@@ -76176,7 +76189,7 @@
         <v>-1.6169999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-3.6600000000000001E-3</v>
       </c>
@@ -76289,7 +76302,7 @@
         <v>-1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-3.7330000000000002E-3</v>
       </c>
@@ -76402,7 +76415,7 @@
         <v>-1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -76532,9 +76545,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6.0897E-2</v>
       </c>
@@ -76647,7 +76660,7 @@
         <v>-1.9911000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.2018000000000002E-2</v>
       </c>
@@ -76760,7 +76773,7 @@
         <v>-1.7957000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.7570000000000001E-2</v>
       </c>
@@ -76873,7 +76886,7 @@
         <v>-1.3519E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.9024999999999997E-2</v>
       </c>
@@ -76986,7 +76999,7 @@
         <v>-1.1037E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.3345E-2</v>
       </c>
@@ -77099,7 +77112,7 @@
         <v>-9.9810000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.7323E-2</v>
       </c>
@@ -77212,7 +77225,7 @@
         <v>-8.3540000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.3375E-2</v>
       </c>
@@ -77325,7 +77338,7 @@
         <v>-6.0850000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7595E-2</v>
       </c>
@@ -77438,7 +77451,7 @@
         <v>-5.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5472E-2</v>
       </c>
@@ -77551,7 +77564,7 @@
         <v>-3.7209999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.0949E-2</v>
       </c>
@@ -77664,7 +77677,7 @@
         <v>-3.5209999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.2219999999999993E-3</v>
       </c>
@@ -77777,7 +77790,7 @@
         <v>-2.637E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.2830000000000004E-3</v>
       </c>
@@ -77890,7 +77903,7 @@
         <v>-2.3679999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.5530000000000002E-3</v>
       </c>
@@ -78003,7 +78016,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.8709999999999999E-3</v>
       </c>
@@ -78116,7 +78129,7 @@
         <v>-1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2.7300000000000002E-4</v>
       </c>
@@ -78229,7 +78242,7 @@
         <v>-1.266E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.358E-3</v>
       </c>
@@ -78342,7 +78355,7 @@
         <v>-8.83E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.4890000000000001E-3</v>
       </c>
@@ -78455,7 +78468,7 @@
         <v>-6.1700000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.9399999999999999E-3</v>
       </c>
@@ -78568,7 +78581,7 @@
         <v>-5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.346E-3</v>
       </c>
@@ -78681,7 +78694,7 @@
         <v>-3.88E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-4.078E-3</v>
       </c>
@@ -78794,7 +78807,7 @@
         <v>-3.4400000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.1070000000000004E-3</v>
       </c>
@@ -78907,7 +78920,7 @@
         <v>-3.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-4.7629999999999999E-3</v>
       </c>
@@ -79020,7 +79033,7 @@
         <v>-8.6000000000000003E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.6930000000000001E-3</v>
       </c>
@@ -79133,7 +79146,7 @@
         <v>-4.6E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-5.8609999999999999E-3</v>
       </c>
@@ -79246,7 +79259,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-5.4380000000000001E-3</v>
       </c>
@@ -79359,7 +79372,7 @@
         <v>2.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-5.8989999999999997E-3</v>
       </c>
@@ -79472,7 +79485,7 @@
         <v>1.6899999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-6.208E-3</v>
       </c>
@@ -79585,7 +79598,7 @@
         <v>3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-6.1330000000000004E-3</v>
       </c>
@@ -79698,7 +79711,7 @@
         <v>5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-6.6750000000000004E-3</v>
       </c>
@@ -79811,7 +79824,7 @@
         <v>3.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-7.0679999999999996E-3</v>
       </c>
@@ -79924,7 +79937,7 @@
         <v>4.84E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-6.9100000000000003E-3</v>
       </c>
@@ -80037,7 +80050,7 @@
         <v>5.3200000000000003E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-7.4700000000000001E-3</v>
       </c>
@@ -80150,7 +80163,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-7.3489999999999996E-3</v>
       </c>
@@ -80263,7 +80276,7 @@
         <v>4.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-7.4440000000000001E-3</v>
       </c>
@@ -80376,7 +80389,7 @@
         <v>4.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-7.5440000000000004E-3</v>
       </c>
@@ -80489,7 +80502,7 @@
         <v>4.8500000000000003E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-7.6689999999999996E-3</v>
       </c>
@@ -80602,7 +80615,7 @@
         <v>2.5500000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-7.4879999999999999E-3</v>
       </c>
@@ -80715,7 +80728,7 @@
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.7850000000000002E-3</v>
       </c>
@@ -80828,7 +80841,7 @@
         <v>-7.2599999999999997E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-4.3819999999999996E-3</v>
       </c>
@@ -80941,7 +80954,7 @@
         <v>-6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-4.4039999999999999E-3</v>
       </c>
@@ -81054,7 +81067,7 @@
         <v>-7.3700000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-4.6059999999999999E-3</v>
       </c>
@@ -81167,7 +81180,7 @@
         <v>-5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-4.7369999999999999E-3</v>
       </c>
@@ -81280,7 +81293,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-4.6800000000000001E-3</v>
       </c>
@@ -81393,7 +81406,7 @@
         <v>-5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-4.7590000000000002E-3</v>
       </c>
@@ -81506,7 +81519,7 @@
         <v>-4.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-4.6610000000000002E-3</v>
       </c>
@@ -81619,7 +81632,7 @@
         <v>-4.46E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-4.8199999999999996E-3</v>
       </c>
@@ -81732,7 +81745,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-4.8079999999999998E-3</v>
       </c>
@@ -81845,7 +81858,7 @@
         <v>-3.1599999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-4.8770000000000003E-3</v>
       </c>
@@ -81958,7 +81971,7 @@
         <v>-2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.0569999999999999E-3</v>
       </c>
@@ -82071,7 +82084,7 @@
         <v>-2.24E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-4.7990000000000003E-3</v>
       </c>
@@ -82184,7 +82197,7 @@
         <v>-1.44E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-4.8690000000000001E-3</v>
       </c>
@@ -82297,7 +82310,7 @@
         <v>-1.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-5.0400000000000002E-3</v>
       </c>
@@ -82410,7 +82423,7 @@
         <v>-2.14E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-5.1720000000000004E-3</v>
       </c>
@@ -82523,7 +82536,7 @@
         <v>-1.08E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-5.189E-3</v>
       </c>
@@ -82636,7 +82649,7 @@
         <v>-1.75E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-5.7850000000000002E-3</v>
       </c>
@@ -82749,7 +82762,7 @@
         <v>-2.2900000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-6.267E-3</v>
       </c>
@@ -82862,7 +82875,7 @@
         <v>-1.73E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-6.5579999999999996E-3</v>
       </c>
@@ -82975,7 +82988,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-6.509E-3</v>
       </c>
@@ -83088,7 +83101,7 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-6.6259999999999999E-3</v>
       </c>
@@ -83201,7 +83214,7 @@
         <v>-2.2699999999999999E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-6.7359999999999998E-3</v>
       </c>
@@ -83314,7 +83327,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-6.2560000000000003E-3</v>
       </c>
@@ -83427,7 +83440,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-5.7759999999999999E-3</v>
       </c>
@@ -83540,7 +83553,7 @@
         <v>-1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-6.0239999999999998E-3</v>
       </c>
@@ -83653,7 +83666,7 @@
         <v>-3.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-5.8950000000000001E-3</v>
       </c>
@@ -83766,7 +83779,7 @@
         <v>-3.39E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-5.731E-3</v>
       </c>
@@ -83879,7 +83892,7 @@
         <v>-2.4600000000000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.1469999999999997E-3</v>
       </c>
@@ -83992,7 +84005,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-5.9959999999999996E-3</v>
       </c>
@@ -84105,7 +84118,7 @@
         <v>-2.3499999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-6.0270000000000002E-3</v>
       </c>
@@ -84218,7 +84231,7 @@
         <v>-3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-5.8529999999999997E-3</v>
       </c>
@@ -84331,7 +84344,7 @@
         <v>-1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-6.463E-3</v>
       </c>
@@ -84444,7 +84457,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-6.5849999999999997E-3</v>
       </c>
@@ -84557,7 +84570,7 @@
         <v>-1.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-6.7669999999999996E-3</v>
       </c>
@@ -84670,7 +84683,7 @@
         <v>-2.32E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-6.6680000000000003E-3</v>
       </c>
@@ -84783,7 +84796,7 @@
         <v>-1.54E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-6.6179999999999998E-3</v>
       </c>
@@ -84896,7 +84909,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-6.8960000000000002E-3</v>
       </c>
@@ -85009,7 +85022,7 @@
         <v>-2.3599999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-7.5009999999999999E-3</v>
       </c>
@@ -85122,7 +85135,7 @@
         <v>-3.21E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-6.4009999999999996E-3</v>
       </c>
@@ -85235,7 +85248,7 @@
         <v>-2.03E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-6.3870000000000003E-3</v>
       </c>
@@ -85348,7 +85361,7 @@
         <v>-2.22E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-6.4689999999999999E-3</v>
       </c>
@@ -85461,7 +85474,7 @@
         <v>-4.0099999999999999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-6.803E-3</v>
       </c>
@@ -85574,7 +85587,7 @@
         <v>-5.2300000000000003E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-5.8910000000000004E-3</v>
       </c>
@@ -85687,7 +85700,7 @@
         <v>-4.3800000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-6.3080000000000002E-3</v>
       </c>
